--- a/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.02726091061411</v>
+        <v>21.02726091061405</v>
       </c>
       <c r="C2">
-        <v>23.8434018863444</v>
+        <v>23.8434018863445</v>
       </c>
       <c r="D2">
-        <v>7.294132140204111</v>
+        <v>7.294132140204123</v>
       </c>
       <c r="E2">
-        <v>11.85164121933694</v>
+        <v>11.85164121933695</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>21.36932193602614</v>
+        <v>21.36932193602621</v>
       </c>
       <c r="K2">
-        <v>17.53202849465272</v>
+        <v>17.53202849465282</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.30241919185836</v>
+        <v>19.30241919185841</v>
       </c>
       <c r="C3">
-        <v>22.00803660966973</v>
+        <v>22.00803660966994</v>
       </c>
       <c r="D3">
-        <v>6.737737206167966</v>
+        <v>6.737737206167813</v>
       </c>
       <c r="E3">
-        <v>10.93799909143882</v>
+        <v>10.93799909143884</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.30801281550008</v>
+        <v>60.30801281550022</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19.66779506683408</v>
+        <v>19.66779506683413</v>
       </c>
       <c r="K3">
-        <v>16.17664076866127</v>
+        <v>16.17664076866131</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -494,10 +494,10 @@
         <v>20.8441107806906</v>
       </c>
       <c r="D4">
-        <v>6.383808363569312</v>
+        <v>6.383808363569177</v>
       </c>
       <c r="E4">
-        <v>10.35854576194703</v>
+        <v>10.35854576194705</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.66197903482313</v>
+        <v>57.66197903482357</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.59119745676965</v>
+        <v>18.59119745676962</v>
       </c>
       <c r="K4">
         <v>15.3161417318539</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.76534208166785</v>
+        <v>17.76534208166791</v>
       </c>
       <c r="C5">
-        <v>20.35982807896659</v>
+        <v>20.35982807896646</v>
       </c>
       <c r="D5">
-        <v>6.236272839699684</v>
+        <v>6.236272839699685</v>
       </c>
       <c r="E5">
-        <v>10.11737498324105</v>
+        <v>10.11737498324102</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.56629925490605</v>
+        <v>56.56629925490572</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>18.14370744225828</v>
+        <v>18.14370744225832</v>
       </c>
       <c r="K5">
-        <v>14.95780494726228</v>
+        <v>14.9578049472622</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.69004942910451</v>
+        <v>17.69004942910445</v>
       </c>
       <c r="C6">
-        <v>20.27879374391201</v>
+        <v>20.27879374391207</v>
       </c>
       <c r="D6">
-        <v>6.213472527023957</v>
+        <v>6.213472527024011</v>
       </c>
       <c r="E6">
-        <v>10.07701400663056</v>
+        <v>10.07701400663055</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.38329133697066</v>
+        <v>56.38329133697076</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>18.06885259641477</v>
+        <v>18.06885259641475</v>
       </c>
       <c r="K6">
-        <v>14.89782481563877</v>
+        <v>14.89782481563878</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.20980303788181</v>
+        <v>18.20980303788173</v>
       </c>
       <c r="C7">
-        <v>20.83762075035346</v>
+        <v>20.83762075035355</v>
       </c>
       <c r="D7">
-        <v>6.381832296975289</v>
+        <v>6.381832296975312</v>
       </c>
       <c r="E7">
-        <v>10.35531412884042</v>
+        <v>10.35531412884031</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.64727372778944</v>
+        <v>57.64727372778952</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.58519886580902</v>
+        <v>18.58519886580905</v>
       </c>
       <c r="K7">
-        <v>15.31134084414067</v>
+        <v>15.31134084414071</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43771648680996</v>
+        <v>20.43771648680991</v>
       </c>
       <c r="C8">
-        <v>23.21780400112441</v>
+        <v>23.21780400112428</v>
       </c>
       <c r="D8">
-        <v>7.104701089337389</v>
+        <v>7.10470108933733</v>
       </c>
       <c r="E8">
-        <v>11.54019485028472</v>
+        <v>11.54019485028476</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.0745935396908</v>
+        <v>63.07459353969045</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>20.78874986501107</v>
+        <v>20.788749865011</v>
       </c>
       <c r="K8">
-        <v>17.07019400002712</v>
+        <v>17.07019400002707</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.63400635946654</v>
+        <v>24.63400635946645</v>
       </c>
       <c r="C9">
-        <v>27.63013458161039</v>
+        <v>27.63013458161038</v>
       </c>
       <c r="D9">
-        <v>8.436382064640609</v>
+        <v>8.436382064640545</v>
       </c>
       <c r="E9">
-        <v>13.73894015510003</v>
+        <v>13.73894015509995</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.26184116540041</v>
+        <v>73.26184116540004</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>24.89951052671806</v>
+        <v>24.89951052671796</v>
       </c>
       <c r="K9">
-        <v>20.32599932769164</v>
+        <v>20.32599932769158</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.69618698928494</v>
+        <v>27.69618698928483</v>
       </c>
       <c r="C10">
-        <v>30.78744580215548</v>
+        <v>30.78744580215557</v>
       </c>
       <c r="D10">
-        <v>9.383471251382138</v>
+        <v>9.383471251382142</v>
       </c>
       <c r="E10">
-        <v>15.31768263702463</v>
+        <v>15.31768263702464</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.60115228134367</v>
+        <v>80.60115228134357</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>27.86851160955148</v>
+        <v>27.8685116095515</v>
       </c>
       <c r="K10">
-        <v>22.65641502754958</v>
+        <v>22.65641502754961</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.1124820551982</v>
+        <v>29.11248205519847</v>
       </c>
       <c r="C11">
-        <v>32.22884438659276</v>
+        <v>32.22884438659315</v>
       </c>
       <c r="D11">
-        <v>9.814275175743544</v>
+        <v>9.814275175743784</v>
       </c>
       <c r="E11">
-        <v>16.04069595602518</v>
+        <v>16.04069595602522</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.9552485753328</v>
+        <v>83.95524857533321</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>29.23313609580265</v>
+        <v>29.23313609580298</v>
       </c>
       <c r="K11">
-        <v>23.72136583871338</v>
+        <v>23.72136583871349</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.65552388237093</v>
+        <v>29.65552388237121</v>
       </c>
       <c r="C12">
-        <v>32.77824412063508</v>
+        <v>32.77824412063481</v>
       </c>
       <c r="D12">
-        <v>9.978214378687133</v>
+        <v>9.97821437868719</v>
       </c>
       <c r="E12">
-        <v>16.31672339527251</v>
+        <v>16.31672339527261</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>85.23340775764319</v>
+        <v>85.23340775764343</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>29.75493466088386</v>
+        <v>29.7549346608839</v>
       </c>
       <c r="K12">
-        <v>24.12752530541137</v>
+        <v>24.12752530541134</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.53820393376769</v>
+        <v>29.53820393376781</v>
       </c>
       <c r="C13">
-        <v>32.65970560120528</v>
+        <v>32.6597056012052</v>
       </c>
       <c r="D13">
-        <v>9.942855404658454</v>
+        <v>9.94285540465844</v>
       </c>
       <c r="E13">
-        <v>16.25714568859188</v>
+        <v>16.25714568859202</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.95765914449858</v>
+        <v>84.95765914449879</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>29.64227130476186</v>
+        <v>29.64227130476189</v>
       </c>
       <c r="K13">
         <v>24.03987966365391</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.15699998155061</v>
+        <v>29.15699998155063</v>
       </c>
       <c r="C14">
-        <v>32.27395225464348</v>
+        <v>32.27395225464355</v>
       </c>
       <c r="D14">
-        <v>9.827740799553899</v>
+        <v>9.827740799553901</v>
       </c>
       <c r="E14">
-        <v>16.06334919717661</v>
+        <v>16.06334919717667</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.06020123073903</v>
+        <v>84.0602012307393</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>29.2759423660401</v>
+        <v>29.27594236604009</v>
       </c>
       <c r="K14">
-        <v>23.75470759376499</v>
+        <v>23.75470759376503</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.9244977689246</v>
+        <v>28.92449776892437</v>
       </c>
       <c r="C15">
-        <v>32.03823418581585</v>
+        <v>32.03823418581588</v>
       </c>
       <c r="D15">
-        <v>9.757363182627376</v>
+        <v>9.757363182627381</v>
       </c>
       <c r="E15">
-        <v>15.94498994115944</v>
+        <v>15.94498994115938</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.51173862396696</v>
+        <v>83.51173862396656</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>29.05232077857659</v>
+        <v>29.05232077857643</v>
       </c>
       <c r="K15">
-        <v>23.58048565526144</v>
+        <v>23.58048565526137</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.60435966771556</v>
+        <v>27.60435966771562</v>
       </c>
       <c r="C16">
-        <v>30.69357068913103</v>
+        <v>30.69357068913112</v>
       </c>
       <c r="D16">
-        <v>9.355379525456078</v>
+        <v>9.355379525455922</v>
       </c>
       <c r="E16">
-        <v>15.27064932858052</v>
+        <v>15.27064932858062</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>27.7798478848558</v>
+        <v>27.77984788485585</v>
       </c>
       <c r="K16">
-        <v>22.58708574135202</v>
+        <v>22.58708574135214</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.80251893130832</v>
+        <v>26.80251893130842</v>
       </c>
       <c r="C17">
-        <v>29.8717046881404</v>
+        <v>29.8717046881403</v>
       </c>
       <c r="D17">
-        <v>9.109261924078597</v>
+        <v>9.109261924078542</v>
       </c>
       <c r="E17">
-        <v>14.8591429487138</v>
+        <v>14.85914294871389</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.47063177044348</v>
+        <v>78.47063177044308</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>27.00466469811027</v>
+        <v>27.00466469811026</v>
       </c>
       <c r="K17">
-        <v>21.98024257441254</v>
+        <v>21.98024257441255</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.34325854187745</v>
+        <v>26.3432585418775</v>
       </c>
       <c r="C18">
-        <v>29.39925648143054</v>
+        <v>29.39925648143053</v>
       </c>
       <c r="D18">
-        <v>8.967637800271856</v>
+        <v>8.967637800271961</v>
       </c>
       <c r="E18">
-        <v>14.62279392657829</v>
+        <v>14.62279392657831</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.37185695258756</v>
+        <v>77.37185695258746</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>26.55988961279362</v>
+        <v>26.55988961279368</v>
       </c>
       <c r="K18">
         <v>21.63149193151893</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.18800879312613</v>
+        <v>26.18800879312631</v>
       </c>
       <c r="C19">
-        <v>29.23926819211447</v>
+        <v>29.23926819211459</v>
       </c>
       <c r="D19">
-        <v>8.9196549257433</v>
+        <v>8.919654925743231</v>
       </c>
       <c r="E19">
-        <v>14.54278951357904</v>
+        <v>14.54278951357902</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.99985807645672</v>
+        <v>76.9998580764569</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>26.40940726793271</v>
+        <v>26.40940726793284</v>
       </c>
       <c r="K19">
-        <v>21.51340546562081</v>
+        <v>21.51340546562082</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.88765497185901</v>
+        <v>26.88765497185905</v>
       </c>
       <c r="C20">
-        <v>29.95914856246771</v>
+        <v>29.95914856246783</v>
       </c>
       <c r="D20">
-        <v>9.13546316356698</v>
+        <v>9.135463163566884</v>
       </c>
       <c r="E20">
-        <v>14.90290394717548</v>
+        <v>14.90290394717538</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.67403664842813</v>
+        <v>78.6740366484285</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>27.08705278370763</v>
+        <v>27.08705278370769</v>
       </c>
       <c r="K20">
-        <v>22.04479857675952</v>
+        <v>22.04479857675947</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.26875335573595</v>
+        <v>29.26875335573594</v>
       </c>
       <c r="C21">
-        <v>32.38713259638839</v>
+        <v>32.38713259638855</v>
       </c>
       <c r="D21">
-        <v>9.861523078577369</v>
+        <v>9.86152307857736</v>
       </c>
       <c r="E21">
-        <v>16.12019608418259</v>
+        <v>16.12019608418243</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84.3235309097945</v>
+        <v>84.32353090979493</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>29.38337548443801</v>
+        <v>29.38337548443804</v>
       </c>
       <c r="K21">
-        <v>23.83836979797434</v>
+        <v>23.83836979797432</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.86670731149611</v>
+        <v>30.86670731149632</v>
       </c>
       <c r="C22">
-        <v>33.99696528780846</v>
+        <v>33.99696528780856</v>
       </c>
       <c r="D22">
-        <v>10.34133994434733</v>
+        <v>10.34133994434739</v>
       </c>
       <c r="E22">
-        <v>16.92999439761693</v>
+        <v>16.92999439761702</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88.06715848854621</v>
+        <v>88.06715848854716</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>30.91588162717142</v>
+        <v>30.91588162717153</v>
       </c>
       <c r="K22">
-        <v>25.02906894138067</v>
+        <v>25.02906894138078</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.00855660050442</v>
+        <v>30.00855660050451</v>
       </c>
       <c r="C23">
-        <v>33.13442577178346</v>
+        <v>33.13442577178344</v>
       </c>
       <c r="D23">
-        <v>10.08441822216046</v>
+        <v>10.08441822216056</v>
       </c>
       <c r="E23">
-        <v>16.49581585061935</v>
+        <v>16.49581585061936</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.06185850977035</v>
+        <v>86.06185850977079</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>30.09373180093432</v>
+        <v>30.09373180093436</v>
       </c>
       <c r="K23">
-        <v>24.390924556619</v>
+        <v>24.39092455661901</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.84915982015396</v>
+        <v>26.84915982015406</v>
       </c>
       <c r="C24">
-        <v>29.91961521900129</v>
+        <v>29.91961521900127</v>
       </c>
       <c r="D24">
-        <v>9.123618038076867</v>
+        <v>9.123618038077005</v>
       </c>
       <c r="E24">
-        <v>14.88311898687015</v>
+        <v>14.88311898687011</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.58207612959373</v>
+        <v>78.5820761295939</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>27.04980257649267</v>
+        <v>27.0498025764927</v>
       </c>
       <c r="K24">
         <v>22.01561255183495</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50988992939547</v>
+        <v>23.50988992939532</v>
       </c>
       <c r="C25">
-        <v>26.45757560554508</v>
+        <v>26.45757560554489</v>
       </c>
       <c r="D25">
-        <v>8.083450171565113</v>
+        <v>8.083450171565012</v>
       </c>
       <c r="E25">
-        <v>13.15399986306365</v>
+        <v>13.15399986306367</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.54362893308664</v>
+        <v>70.54362893308603</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>23.80316957334259</v>
+        <v>23.80316957334239</v>
       </c>
       <c r="K25">
-        <v>19.46093814563683</v>
+        <v>19.46093814563675</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.02726091061405</v>
+        <v>21.02726091061411</v>
       </c>
       <c r="C2">
-        <v>23.8434018863445</v>
+        <v>23.8434018863444</v>
       </c>
       <c r="D2">
-        <v>7.294132140204123</v>
+        <v>7.294132140204111</v>
       </c>
       <c r="E2">
-        <v>11.85164121933695</v>
+        <v>11.85164121933694</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>21.36932193602621</v>
+        <v>21.36932193602614</v>
       </c>
       <c r="K2">
-        <v>17.53202849465282</v>
+        <v>17.53202849465272</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.30241919185841</v>
+        <v>19.30241919185836</v>
       </c>
       <c r="C3">
-        <v>22.00803660966994</v>
+        <v>22.00803660966973</v>
       </c>
       <c r="D3">
-        <v>6.737737206167813</v>
+        <v>6.737737206167966</v>
       </c>
       <c r="E3">
-        <v>10.93799909143884</v>
+        <v>10.93799909143882</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.30801281550022</v>
+        <v>60.30801281550008</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>19.66779506683413</v>
+        <v>19.66779506683408</v>
       </c>
       <c r="K3">
-        <v>16.17664076866131</v>
+        <v>16.17664076866127</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -494,10 +494,10 @@
         <v>20.8441107806906</v>
       </c>
       <c r="D4">
-        <v>6.383808363569177</v>
+        <v>6.383808363569312</v>
       </c>
       <c r="E4">
-        <v>10.35854576194705</v>
+        <v>10.35854576194703</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.66197903482357</v>
+        <v>57.66197903482313</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.59119745676962</v>
+        <v>18.59119745676965</v>
       </c>
       <c r="K4">
         <v>15.3161417318539</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.76534208166791</v>
+        <v>17.76534208166785</v>
       </c>
       <c r="C5">
-        <v>20.35982807896646</v>
+        <v>20.35982807896659</v>
       </c>
       <c r="D5">
-        <v>6.236272839699685</v>
+        <v>6.236272839699684</v>
       </c>
       <c r="E5">
-        <v>10.11737498324102</v>
+        <v>10.11737498324105</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.56629925490572</v>
+        <v>56.56629925490605</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>18.14370744225832</v>
+        <v>18.14370744225828</v>
       </c>
       <c r="K5">
-        <v>14.9578049472622</v>
+        <v>14.95780494726228</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.69004942910445</v>
+        <v>17.69004942910451</v>
       </c>
       <c r="C6">
-        <v>20.27879374391207</v>
+        <v>20.27879374391201</v>
       </c>
       <c r="D6">
-        <v>6.213472527024011</v>
+        <v>6.213472527023957</v>
       </c>
       <c r="E6">
-        <v>10.07701400663055</v>
+        <v>10.07701400663056</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.38329133697076</v>
+        <v>56.38329133697066</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>18.06885259641475</v>
+        <v>18.06885259641477</v>
       </c>
       <c r="K6">
-        <v>14.89782481563878</v>
+        <v>14.89782481563877</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.20980303788173</v>
+        <v>18.20980303788181</v>
       </c>
       <c r="C7">
-        <v>20.83762075035355</v>
+        <v>20.83762075035346</v>
       </c>
       <c r="D7">
-        <v>6.381832296975312</v>
+        <v>6.381832296975289</v>
       </c>
       <c r="E7">
-        <v>10.35531412884031</v>
+        <v>10.35531412884042</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.64727372778952</v>
+        <v>57.64727372778944</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.58519886580905</v>
+        <v>18.58519886580902</v>
       </c>
       <c r="K7">
-        <v>15.31134084414071</v>
+        <v>15.31134084414067</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43771648680991</v>
+        <v>20.43771648680996</v>
       </c>
       <c r="C8">
-        <v>23.21780400112428</v>
+        <v>23.21780400112441</v>
       </c>
       <c r="D8">
-        <v>7.10470108933733</v>
+        <v>7.104701089337389</v>
       </c>
       <c r="E8">
-        <v>11.54019485028476</v>
+        <v>11.54019485028472</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.07459353969045</v>
+        <v>63.0745935396908</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>20.788749865011</v>
+        <v>20.78874986501107</v>
       </c>
       <c r="K8">
-        <v>17.07019400002707</v>
+        <v>17.07019400002712</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.63400635946645</v>
+        <v>24.63400635946654</v>
       </c>
       <c r="C9">
-        <v>27.63013458161038</v>
+        <v>27.63013458161039</v>
       </c>
       <c r="D9">
-        <v>8.436382064640545</v>
+        <v>8.436382064640609</v>
       </c>
       <c r="E9">
-        <v>13.73894015509995</v>
+        <v>13.73894015510003</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.26184116540004</v>
+        <v>73.26184116540041</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>24.89951052671796</v>
+        <v>24.89951052671806</v>
       </c>
       <c r="K9">
-        <v>20.32599932769158</v>
+        <v>20.32599932769164</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.69618698928483</v>
+        <v>27.69618698928494</v>
       </c>
       <c r="C10">
-        <v>30.78744580215557</v>
+        <v>30.78744580215548</v>
       </c>
       <c r="D10">
-        <v>9.383471251382142</v>
+        <v>9.383471251382138</v>
       </c>
       <c r="E10">
-        <v>15.31768263702464</v>
+        <v>15.31768263702463</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.60115228134357</v>
+        <v>80.60115228134367</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>27.8685116095515</v>
+        <v>27.86851160955148</v>
       </c>
       <c r="K10">
-        <v>22.65641502754961</v>
+        <v>22.65641502754958</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.11248205519847</v>
+        <v>29.1124820551982</v>
       </c>
       <c r="C11">
-        <v>32.22884438659315</v>
+        <v>32.22884438659276</v>
       </c>
       <c r="D11">
-        <v>9.814275175743784</v>
+        <v>9.814275175743544</v>
       </c>
       <c r="E11">
-        <v>16.04069595602522</v>
+        <v>16.04069595602518</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.95524857533321</v>
+        <v>83.9552485753328</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>29.23313609580298</v>
+        <v>29.23313609580265</v>
       </c>
       <c r="K11">
-        <v>23.72136583871349</v>
+        <v>23.72136583871338</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.65552388237121</v>
+        <v>29.65552388237093</v>
       </c>
       <c r="C12">
-        <v>32.77824412063481</v>
+        <v>32.77824412063508</v>
       </c>
       <c r="D12">
-        <v>9.97821437868719</v>
+        <v>9.978214378687133</v>
       </c>
       <c r="E12">
-        <v>16.31672339527261</v>
+        <v>16.31672339527251</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>85.23340775764343</v>
+        <v>85.23340775764319</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>29.7549346608839</v>
+        <v>29.75493466088386</v>
       </c>
       <c r="K12">
-        <v>24.12752530541134</v>
+        <v>24.12752530541137</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.53820393376781</v>
+        <v>29.53820393376769</v>
       </c>
       <c r="C13">
-        <v>32.6597056012052</v>
+        <v>32.65970560120528</v>
       </c>
       <c r="D13">
-        <v>9.94285540465844</v>
+        <v>9.942855404658454</v>
       </c>
       <c r="E13">
-        <v>16.25714568859202</v>
+        <v>16.25714568859188</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.95765914449879</v>
+        <v>84.95765914449858</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>29.64227130476189</v>
+        <v>29.64227130476186</v>
       </c>
       <c r="K13">
         <v>24.03987966365391</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.15699998155063</v>
+        <v>29.15699998155061</v>
       </c>
       <c r="C14">
-        <v>32.27395225464355</v>
+        <v>32.27395225464348</v>
       </c>
       <c r="D14">
-        <v>9.827740799553901</v>
+        <v>9.827740799553899</v>
       </c>
       <c r="E14">
-        <v>16.06334919717667</v>
+        <v>16.06334919717661</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.0602012307393</v>
+        <v>84.06020123073903</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>29.27594236604009</v>
+        <v>29.2759423660401</v>
       </c>
       <c r="K14">
-        <v>23.75470759376503</v>
+        <v>23.75470759376499</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.92449776892437</v>
+        <v>28.9244977689246</v>
       </c>
       <c r="C15">
-        <v>32.03823418581588</v>
+        <v>32.03823418581585</v>
       </c>
       <c r="D15">
-        <v>9.757363182627381</v>
+        <v>9.757363182627376</v>
       </c>
       <c r="E15">
-        <v>15.94498994115938</v>
+        <v>15.94498994115944</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.51173862396656</v>
+        <v>83.51173862396696</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>29.05232077857643</v>
+        <v>29.05232077857659</v>
       </c>
       <c r="K15">
-        <v>23.58048565526137</v>
+        <v>23.58048565526144</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.60435966771562</v>
+        <v>27.60435966771556</v>
       </c>
       <c r="C16">
-        <v>30.69357068913112</v>
+        <v>30.69357068913103</v>
       </c>
       <c r="D16">
-        <v>9.355379525455922</v>
+        <v>9.355379525456078</v>
       </c>
       <c r="E16">
-        <v>15.27064932858062</v>
+        <v>15.27064932858052</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>27.77984788485585</v>
+        <v>27.7798478848558</v>
       </c>
       <c r="K16">
-        <v>22.58708574135214</v>
+        <v>22.58708574135202</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.80251893130842</v>
+        <v>26.80251893130832</v>
       </c>
       <c r="C17">
-        <v>29.8717046881403</v>
+        <v>29.8717046881404</v>
       </c>
       <c r="D17">
-        <v>9.109261924078542</v>
+        <v>9.109261924078597</v>
       </c>
       <c r="E17">
-        <v>14.85914294871389</v>
+        <v>14.8591429487138</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.47063177044308</v>
+        <v>78.47063177044348</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>27.00466469811026</v>
+        <v>27.00466469811027</v>
       </c>
       <c r="K17">
-        <v>21.98024257441255</v>
+        <v>21.98024257441254</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.3432585418775</v>
+        <v>26.34325854187745</v>
       </c>
       <c r="C18">
-        <v>29.39925648143053</v>
+        <v>29.39925648143054</v>
       </c>
       <c r="D18">
-        <v>8.967637800271961</v>
+        <v>8.967637800271856</v>
       </c>
       <c r="E18">
-        <v>14.62279392657831</v>
+        <v>14.62279392657829</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.37185695258746</v>
+        <v>77.37185695258756</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>26.55988961279368</v>
+        <v>26.55988961279362</v>
       </c>
       <c r="K18">
         <v>21.63149193151893</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.18800879312631</v>
+        <v>26.18800879312613</v>
       </c>
       <c r="C19">
-        <v>29.23926819211459</v>
+        <v>29.23926819211447</v>
       </c>
       <c r="D19">
-        <v>8.919654925743231</v>
+        <v>8.9196549257433</v>
       </c>
       <c r="E19">
-        <v>14.54278951357902</v>
+        <v>14.54278951357904</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.9998580764569</v>
+        <v>76.99985807645672</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>26.40940726793284</v>
+        <v>26.40940726793271</v>
       </c>
       <c r="K19">
-        <v>21.51340546562082</v>
+        <v>21.51340546562081</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.88765497185905</v>
+        <v>26.88765497185901</v>
       </c>
       <c r="C20">
-        <v>29.95914856246783</v>
+        <v>29.95914856246771</v>
       </c>
       <c r="D20">
-        <v>9.135463163566884</v>
+        <v>9.13546316356698</v>
       </c>
       <c r="E20">
-        <v>14.90290394717538</v>
+        <v>14.90290394717548</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.6740366484285</v>
+        <v>78.67403664842813</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>27.08705278370769</v>
+        <v>27.08705278370763</v>
       </c>
       <c r="K20">
-        <v>22.04479857675947</v>
+        <v>22.04479857675952</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.26875335573594</v>
+        <v>29.26875335573595</v>
       </c>
       <c r="C21">
-        <v>32.38713259638855</v>
+        <v>32.38713259638839</v>
       </c>
       <c r="D21">
-        <v>9.86152307857736</v>
+        <v>9.861523078577369</v>
       </c>
       <c r="E21">
-        <v>16.12019608418243</v>
+        <v>16.12019608418259</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84.32353090979493</v>
+        <v>84.3235309097945</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>29.38337548443804</v>
+        <v>29.38337548443801</v>
       </c>
       <c r="K21">
-        <v>23.83836979797432</v>
+        <v>23.83836979797434</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.86670731149632</v>
+        <v>30.86670731149611</v>
       </c>
       <c r="C22">
-        <v>33.99696528780856</v>
+        <v>33.99696528780846</v>
       </c>
       <c r="D22">
-        <v>10.34133994434739</v>
+        <v>10.34133994434733</v>
       </c>
       <c r="E22">
-        <v>16.92999439761702</v>
+        <v>16.92999439761693</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88.06715848854716</v>
+        <v>88.06715848854621</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>30.91588162717153</v>
+        <v>30.91588162717142</v>
       </c>
       <c r="K22">
-        <v>25.02906894138078</v>
+        <v>25.02906894138067</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.00855660050451</v>
+        <v>30.00855660050442</v>
       </c>
       <c r="C23">
-        <v>33.13442577178344</v>
+        <v>33.13442577178346</v>
       </c>
       <c r="D23">
-        <v>10.08441822216056</v>
+        <v>10.08441822216046</v>
       </c>
       <c r="E23">
-        <v>16.49581585061936</v>
+        <v>16.49581585061935</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.06185850977079</v>
+        <v>86.06185850977035</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>30.09373180093436</v>
+        <v>30.09373180093432</v>
       </c>
       <c r="K23">
-        <v>24.39092455661901</v>
+        <v>24.390924556619</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.84915982015406</v>
+        <v>26.84915982015396</v>
       </c>
       <c r="C24">
-        <v>29.91961521900127</v>
+        <v>29.91961521900129</v>
       </c>
       <c r="D24">
-        <v>9.123618038077005</v>
+        <v>9.123618038076867</v>
       </c>
       <c r="E24">
-        <v>14.88311898687011</v>
+        <v>14.88311898687015</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.5820761295939</v>
+        <v>78.58207612959373</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>27.0498025764927</v>
+        <v>27.04980257649267</v>
       </c>
       <c r="K24">
         <v>22.01561255183495</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50988992939532</v>
+        <v>23.50988992939547</v>
       </c>
       <c r="C25">
-        <v>26.45757560554489</v>
+        <v>26.45757560554508</v>
       </c>
       <c r="D25">
-        <v>8.083450171565012</v>
+        <v>8.083450171565113</v>
       </c>
       <c r="E25">
-        <v>13.15399986306367</v>
+        <v>13.15399986306365</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.54362893308603</v>
+        <v>70.54362893308664</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>23.80316957334239</v>
+        <v>23.80316957334259</v>
       </c>
       <c r="K25">
-        <v>19.46093814563675</v>
+        <v>19.46093814563683</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.02726091061411</v>
+        <v>20.85635827986361</v>
       </c>
       <c r="C2">
-        <v>23.8434018863444</v>
+        <v>23.72494014672159</v>
       </c>
       <c r="D2">
-        <v>7.294132140204111</v>
+        <v>7.271183352840188</v>
       </c>
       <c r="E2">
-        <v>11.85164121933694</v>
+        <v>11.84183614643313</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.045947953419239</v>
       </c>
       <c r="H2">
-        <v>64.51078710092403</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>64.54990537182937</v>
       </c>
       <c r="J2">
-        <v>21.36932193602614</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.53202849465272</v>
+        <v>21.19944383387537</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>17.45906250840686</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.30241919185836</v>
+        <v>19.14628616188093</v>
       </c>
       <c r="C3">
-        <v>22.00803660966973</v>
+        <v>21.90598851233288</v>
       </c>
       <c r="D3">
-        <v>6.737737206167966</v>
+        <v>6.717048183091013</v>
       </c>
       <c r="E3">
-        <v>10.93799909143882</v>
+        <v>10.93162272930364</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.066246456983974</v>
       </c>
       <c r="H3">
-        <v>60.30801281550008</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>60.37904863386147</v>
       </c>
       <c r="J3">
-        <v>19.66779506683408</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.17664076866127</v>
+        <v>19.51017295931246</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>16.10959998510327</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.21584649982671</v>
+        <v>18.06934334500104</v>
       </c>
       <c r="C4">
-        <v>20.8441107806906</v>
+        <v>20.75287180672074</v>
       </c>
       <c r="D4">
-        <v>6.383808363569312</v>
+        <v>6.364481318430998</v>
       </c>
       <c r="E4">
-        <v>10.35854576194703</v>
+        <v>10.35422029755639</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.078698853105507</v>
       </c>
       <c r="H4">
-        <v>57.66197903482313</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>57.75371178328869</v>
       </c>
       <c r="J4">
-        <v>18.59119745676965</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.3161417318539</v>
+        <v>18.44141527263761</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15.25267902313165</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.76534208166785</v>
+        <v>17.62293564330627</v>
       </c>
       <c r="C5">
-        <v>20.35982807896659</v>
+        <v>20.27321015900699</v>
       </c>
       <c r="D5">
-        <v>6.236272839699684</v>
+        <v>6.220811722107541</v>
       </c>
       <c r="E5">
-        <v>10.11737498324105</v>
+        <v>10.11387896410996</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.083785393330538</v>
       </c>
       <c r="H5">
-        <v>56.56629925490605</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>56.66678799531354</v>
       </c>
       <c r="J5">
-        <v>18.14370744225828</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.95780494726228</v>
+        <v>17.99722248265713</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>14.89579564785348</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.69004942910451</v>
+        <v>17.5483345921516</v>
       </c>
       <c r="C6">
-        <v>20.27879374391201</v>
+        <v>20.19295718118246</v>
       </c>
       <c r="D6">
-        <v>6.213472527023957</v>
+        <v>6.200149977089762</v>
       </c>
       <c r="E6">
-        <v>10.07701400663056</v>
+        <v>10.07365552469037</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.084631130607031</v>
       </c>
       <c r="H6">
-        <v>56.38329133697066</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>56.48525467688746</v>
       </c>
       <c r="J6">
-        <v>18.06885259641477</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.89782481563877</v>
+        <v>17.92292199023916</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>14.83605683662582</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.20980303788181</v>
+        <v>18.06335439275088</v>
       </c>
       <c r="C7">
-        <v>20.83762075035346</v>
+        <v>20.74644317823329</v>
       </c>
       <c r="D7">
-        <v>6.381832296975289</v>
+        <v>6.362512707049489</v>
       </c>
       <c r="E7">
-        <v>10.35531412884042</v>
+        <v>10.35099986746703</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.078767385062506</v>
       </c>
       <c r="H7">
-        <v>57.64727372778944</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>57.73912320310819</v>
       </c>
       <c r="J7">
-        <v>18.58519886580902</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>15.31134084414067</v>
+        <v>18.43546070443993</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15.24789774331706</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43771648680996</v>
+        <v>20.27180883239675</v>
       </c>
       <c r="C8">
-        <v>23.21780400112441</v>
+        <v>23.10486927537821</v>
       </c>
       <c r="D8">
-        <v>7.104701089337389</v>
+        <v>7.082539271007676</v>
       </c>
       <c r="E8">
-        <v>11.54019485028472</v>
+        <v>11.53158818559791</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.052958869816283</v>
       </c>
       <c r="H8">
-        <v>63.0745935396908</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>63.12451779756972</v>
       </c>
       <c r="J8">
-        <v>20.78874986501107</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.07019400002712</v>
+        <v>20.62304672086917</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>16.99929047281595</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.63400635946654</v>
+        <v>24.43290702206362</v>
       </c>
       <c r="C9">
-        <v>27.63013458161039</v>
+        <v>27.47884792908388</v>
       </c>
       <c r="D9">
-        <v>8.436382064640609</v>
+        <v>8.408217889493216</v>
       </c>
       <c r="E9">
-        <v>13.73894015510003</v>
+        <v>13.72104661796117</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.001433687693379</v>
       </c>
       <c r="H9">
-        <v>73.26184116540041</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>73.23585681004026</v>
       </c>
       <c r="J9">
-        <v>24.89951052671806</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>20.32599932769164</v>
+        <v>24.70382468364068</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>20.23936190610589</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.69618698928494</v>
+        <v>27.46852623905063</v>
       </c>
       <c r="C10">
-        <v>30.78744580215548</v>
+        <v>30.60819756720918</v>
       </c>
       <c r="D10">
-        <v>9.383471251382138</v>
+        <v>9.350170091213464</v>
       </c>
       <c r="E10">
-        <v>15.31768263702463</v>
+        <v>15.29154315747788</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.961514215360789</v>
       </c>
       <c r="H10">
-        <v>80.60115228134367</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>80.51885101099518</v>
       </c>
       <c r="J10">
-        <v>27.86851160955148</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>22.65641502754958</v>
+        <v>27.64950674278203</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>22.55625921283801</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.1124820551982</v>
+        <v>28.87174709391688</v>
       </c>
       <c r="C11">
-        <v>32.22884438659276</v>
+        <v>32.03615379921126</v>
       </c>
       <c r="D11">
-        <v>9.814275175743544</v>
+        <v>9.778300490482058</v>
       </c>
       <c r="E11">
-        <v>16.04069595602518</v>
+        <v>16.01015389506541</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.942416348489983</v>
       </c>
       <c r="H11">
-        <v>83.9552485753328</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>83.84569297603144</v>
       </c>
       <c r="J11">
-        <v>29.23313609580265</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>23.72136583871338</v>
+        <v>29.00251110642116</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>23.61414150117638</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.65552388237093</v>
+        <v>29.40958414480833</v>
       </c>
       <c r="C12">
-        <v>32.77824412063508</v>
+        <v>32.58025961266279</v>
       </c>
       <c r="D12">
-        <v>9.978214378687133</v>
+        <v>9.941153862298368</v>
       </c>
       <c r="E12">
-        <v>16.31672339527251</v>
+        <v>16.28437235034432</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.93499039032094</v>
       </c>
       <c r="H12">
-        <v>85.23340775764319</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>85.11309478629113</v>
       </c>
       <c r="J12">
-        <v>29.75493466088386</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>24.12752530541137</v>
+        <v>29.51966485198526</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>24.01742288853993</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.53820393376769</v>
+        <v>29.29339879902976</v>
       </c>
       <c r="C13">
-        <v>32.65970560120528</v>
+        <v>32.46287239245969</v>
       </c>
       <c r="D13">
-        <v>9.942855404658454</v>
+        <v>9.906032547173304</v>
       </c>
       <c r="E13">
-        <v>16.25714568859188</v>
+        <v>16.22519159168487</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.936599505740745</v>
       </c>
       <c r="H13">
-        <v>84.95765914449858</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>84.83968666570581</v>
       </c>
       <c r="J13">
-        <v>29.64227130476186</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>24.03987966365391</v>
+        <v>29.40801483530114</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>23.93040754766056</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.15699998155061</v>
+        <v>28.91584273976772</v>
       </c>
       <c r="C14">
-        <v>32.27395225464348</v>
+        <v>32.08083095229256</v>
       </c>
       <c r="D14">
-        <v>9.827740799553899</v>
+        <v>9.791678443237796</v>
       </c>
       <c r="E14">
-        <v>16.06334919717661</v>
+        <v>16.03266151803544</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.941809713327198</v>
       </c>
       <c r="H14">
-        <v>84.06020123073903</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>83.94977087001061</v>
       </c>
       <c r="J14">
-        <v>29.2759423660401</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>23.75470759376499</v>
+        <v>29.04494088860896</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>23.64725103618379</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.9244977689246</v>
+        <v>28.68553769739999</v>
       </c>
       <c r="C15">
-        <v>32.03823418581585</v>
+        <v>31.84735627847127</v>
       </c>
       <c r="D15">
-        <v>9.757363182627376</v>
+        <v>9.721756135567375</v>
       </c>
       <c r="E15">
-        <v>15.94498994115944</v>
+        <v>15.91505766158915</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.944973738541846</v>
       </c>
       <c r="H15">
-        <v>83.51173862396696</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>83.40586355194787</v>
       </c>
       <c r="J15">
-        <v>29.05232077857659</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>23.58048565526144</v>
+        <v>28.82327747236305</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>23.47423480401186</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.60435966771556</v>
+        <v>27.37752500172409</v>
       </c>
       <c r="C16">
-        <v>30.69357068913103</v>
+        <v>30.51517884536197</v>
       </c>
       <c r="D16">
-        <v>9.355379525456078</v>
+        <v>9.322244439282359</v>
       </c>
       <c r="E16">
-        <v>15.27064932858052</v>
+        <v>15.24478086126549</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.962738823768509</v>
       </c>
       <c r="H16">
-        <v>80.38271514113448</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>80.30214685882287</v>
       </c>
       <c r="J16">
-        <v>27.7798478848558</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>22.58708574135202</v>
+        <v>27.56157460543573</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>22.48736820173347</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.80251893130832</v>
+        <v>26.58280421208156</v>
       </c>
       <c r="C17">
-        <v>29.8717046881404</v>
+        <v>29.70072915594043</v>
       </c>
       <c r="D17">
-        <v>9.109261924078597</v>
+        <v>9.077542736523283</v>
       </c>
       <c r="E17">
-        <v>14.8591429487138</v>
+        <v>14.83557312142213</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.973360700631109</v>
       </c>
       <c r="H17">
-        <v>78.47063177044348</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>78.4050520195603</v>
       </c>
       <c r="J17">
-        <v>27.00466469811027</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.98024257441254</v>
+        <v>26.79268198744384</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>21.88425801948447</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.34325854187745</v>
+        <v>26.12755445742987</v>
       </c>
       <c r="C18">
-        <v>29.39925648143054</v>
+        <v>29.23248636322634</v>
       </c>
       <c r="D18">
-        <v>8.967637800271856</v>
+        <v>8.936703308233463</v>
       </c>
       <c r="E18">
-        <v>14.62279392657829</v>
+        <v>14.60048875095941</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.979386266984238</v>
       </c>
       <c r="H18">
-        <v>77.37185695258756</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>77.31476007927613</v>
       </c>
       <c r="J18">
-        <v>26.55988961279362</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>21.63149193151893</v>
+        <v>26.35143761706945</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>21.53757353405226</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.18800879312613</v>
+        <v>25.97365075004475</v>
       </c>
       <c r="C19">
-        <v>29.23926819211447</v>
+        <v>29.07391399115124</v>
       </c>
       <c r="D19">
-        <v>8.9196549257433</v>
+        <v>8.888981599978282</v>
       </c>
       <c r="E19">
-        <v>14.54278951357904</v>
+        <v>14.52090377298966</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.981413508480366</v>
       </c>
       <c r="H19">
-        <v>76.99985807645672</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>76.94561442299003</v>
       </c>
       <c r="J19">
-        <v>26.40940726793271</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>21.51340546562081</v>
+        <v>26.20213801908484</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>21.42017433576757</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.88765497185901</v>
+        <v>26.66719172563882</v>
       </c>
       <c r="C20">
-        <v>29.95914856246771</v>
+        <v>29.78739037516127</v>
       </c>
       <c r="D20">
-        <v>9.13546316356698</v>
+        <v>9.103596468338855</v>
       </c>
       <c r="E20">
-        <v>14.90290394717548</v>
+        <v>14.87909564981085</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.972239027701297</v>
       </c>
       <c r="H20">
-        <v>78.67403664842813</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>78.60687682092527</v>
       </c>
       <c r="J20">
-        <v>27.08705278370763</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>22.04479857675952</v>
+        <v>26.87441005815171</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>21.94842541632518</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.26875335573595</v>
+        <v>29.02653268698344</v>
       </c>
       <c r="C21">
-        <v>32.38713259638839</v>
+        <v>32.19292757094632</v>
       </c>
       <c r="D21">
-        <v>9.861523078577369</v>
+        <v>9.825239600989216</v>
       </c>
       <c r="E21">
-        <v>16.12019608418259</v>
+        <v>16.08914078551465</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.940285191567723</v>
       </c>
       <c r="H21">
-        <v>84.3235309097945</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>84.21089918871925</v>
       </c>
       <c r="J21">
-        <v>29.38337548443801</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>23.83836979797434</v>
+        <v>29.15142560810531</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>23.73032741868733</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.86670731149611</v>
+        <v>30.60868848252398</v>
       </c>
       <c r="C22">
-        <v>33.99696528780846</v>
+        <v>33.78681634773187</v>
       </c>
       <c r="D22">
-        <v>10.34133994434733</v>
+        <v>10.30171913678097</v>
       </c>
       <c r="E22">
-        <v>16.92999439761693</v>
+        <v>16.89333203853472</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.91822563774587</v>
       </c>
       <c r="H22">
-        <v>88.06715848854621</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>87.92208538397752</v>
       </c>
       <c r="J22">
-        <v>30.91588162717142</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>25.02906894138067</v>
+        <v>30.6697994989263</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>24.91216303937664</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.00855660050442</v>
+        <v>29.75916694546531</v>
       </c>
       <c r="C23">
-        <v>33.13442577178346</v>
+        <v>32.93294984813079</v>
       </c>
       <c r="D23">
-        <v>10.08441822216046</v>
+        <v>10.04663194364805</v>
       </c>
       <c r="E23">
-        <v>16.49581585061935</v>
+        <v>16.46224914423155</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.930132483442386</v>
       </c>
       <c r="H23">
-        <v>86.06185850977035</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>85.93444450790797</v>
       </c>
       <c r="J23">
-        <v>30.09373180093432</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>24.390924556619</v>
+        <v>29.85537822462909</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>24.27889604161727</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.84915982015396</v>
+        <v>26.62903523307989</v>
       </c>
       <c r="C24">
-        <v>29.91961521900129</v>
+        <v>29.74821104493488</v>
       </c>
       <c r="D24">
-        <v>9.123618038076867</v>
+        <v>9.091818120716006</v>
       </c>
       <c r="E24">
-        <v>14.88311898687015</v>
+        <v>14.85941867571103</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.972746384471549</v>
       </c>
       <c r="H24">
-        <v>78.58207612959373</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>78.51563105911099</v>
       </c>
       <c r="J24">
-        <v>27.04980257649267</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>22.01561255183495</v>
+        <v>26.83745850426495</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>21.91941532441829</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50988992939547</v>
+        <v>23.31821854538432</v>
       </c>
       <c r="C25">
-        <v>26.45757560554508</v>
+        <v>26.31642342006242</v>
       </c>
       <c r="D25">
-        <v>8.083450171565113</v>
+        <v>8.056993861934391</v>
       </c>
       <c r="E25">
-        <v>13.15399986306365</v>
+        <v>13.13878516057988</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.015603341333858</v>
       </c>
       <c r="H25">
-        <v>70.54362893308664</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>70.53788747386656</v>
       </c>
       <c r="J25">
-        <v>23.80316957334259</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.46093814563683</v>
+        <v>23.61563612440057</v>
       </c>
       <c r="L25">
+        <v>19.37878088056218</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.85635827986361</v>
+        <v>28.40259784589062</v>
       </c>
       <c r="C2">
-        <v>23.72494014672159</v>
+        <v>21.52683287406539</v>
       </c>
       <c r="D2">
-        <v>7.271183352840188</v>
+        <v>7.236033361333277</v>
       </c>
       <c r="E2">
-        <v>11.84183614643313</v>
+        <v>7.96695905021673</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.045947953419239</v>
+        <v>2.055508657764428</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.54990537182937</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.19944383387537</v>
+        <v>25.24267649325012</v>
       </c>
       <c r="L2">
-        <v>17.45906250840686</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.06259397994716</v>
+      </c>
+      <c r="N2">
+        <v>20.09517234726124</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.14628616188093</v>
+        <v>26.27089679023469</v>
       </c>
       <c r="C3">
-        <v>21.90598851233288</v>
+        <v>19.88596957366443</v>
       </c>
       <c r="D3">
-        <v>6.717048183091013</v>
+        <v>6.691600169030837</v>
       </c>
       <c r="E3">
-        <v>10.93162272930364</v>
+        <v>7.374986876118959</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.066246456983974</v>
+        <v>2.073835744555781</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.37904863386147</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.51017295931246</v>
+        <v>23.32452539909618</v>
       </c>
       <c r="L3">
-        <v>16.10959998510327</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>19.46463203425621</v>
+      </c>
+      <c r="N3">
+        <v>19.6494991394492</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.06934334500104</v>
+        <v>24.92833162223636</v>
       </c>
       <c r="C4">
-        <v>20.75287180672074</v>
+        <v>18.84299678335369</v>
       </c>
       <c r="D4">
-        <v>6.364481318430998</v>
+        <v>6.344104027298131</v>
       </c>
       <c r="E4">
-        <v>10.35422029755639</v>
+        <v>7.000084049407356</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.078698853105507</v>
+        <v>2.085163001904809</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>57.75371178328869</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.44141527263761</v>
+        <v>22.10286414759555</v>
       </c>
       <c r="L4">
-        <v>15.25267902313165</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>18.44539536611966</v>
+      </c>
+      <c r="N4">
+        <v>19.3811641835047</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.62293564330627</v>
+        <v>24.41208542710473</v>
       </c>
       <c r="C5">
-        <v>20.27321015900699</v>
+        <v>18.40860076767554</v>
       </c>
       <c r="D5">
-        <v>6.220811722107541</v>
+        <v>6.207645433859345</v>
       </c>
       <c r="E5">
-        <v>10.11387896410996</v>
+        <v>6.877798425762781</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.083785393330538</v>
+        <v>2.089807851555393</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>56.66678799531354</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.99722248265713</v>
+        <v>21.5934562364347</v>
       </c>
       <c r="L5">
-        <v>14.89579564785348</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>18.02383855214244</v>
+      </c>
+      <c r="N5">
+        <v>19.27303461203555</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.5483345921516</v>
+        <v>24.32584659455332</v>
       </c>
       <c r="C6">
-        <v>20.19295718118246</v>
+        <v>18.3358916440483</v>
       </c>
       <c r="D6">
-        <v>6.200149977089762</v>
+        <v>6.187247158182766</v>
       </c>
       <c r="E6">
-        <v>10.07365552469037</v>
+        <v>6.857444417039411</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.084631130607031</v>
+        <v>2.090581143806172</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.48525467688746</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.92292199023916</v>
+        <v>21.50815672935188</v>
       </c>
       <c r="L6">
-        <v>14.83605683662582</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17.9680136201994</v>
+      </c>
+      <c r="N6">
+        <v>19.255150431043</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.06335439275088</v>
+        <v>24.92140391174251</v>
       </c>
       <c r="C7">
-        <v>20.74644317823329</v>
+        <v>18.83717687095661</v>
       </c>
       <c r="D7">
-        <v>6.362512707049489</v>
+        <v>6.342161565221578</v>
       </c>
       <c r="E7">
-        <v>10.35099986746703</v>
+        <v>6.998438133180358</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.078767385062506</v>
+        <v>2.085225514444961</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>57.73912320310819</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.43546070443993</v>
+        <v>22.09604158289028</v>
       </c>
       <c r="L7">
-        <v>15.24789774331706</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>18.43969943493011</v>
+      </c>
+      <c r="N7">
+        <v>19.37970111154264</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.27180883239675</v>
+        <v>27.67689727873482</v>
       </c>
       <c r="C8">
-        <v>23.10486927537821</v>
+        <v>20.96812435648677</v>
       </c>
       <c r="D8">
-        <v>7.082539271007676</v>
+        <v>7.050950034930994</v>
       </c>
       <c r="E8">
-        <v>11.53158818559791</v>
+        <v>7.765527002172822</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.052958869816283</v>
+        <v>2.061819001693195</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.12451779756972</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.62304672086917</v>
+        <v>24.59006379212032</v>
       </c>
       <c r="L8">
-        <v>16.99929047281595</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>20.51920377682386</v>
+      </c>
+      <c r="N8">
+        <v>19.94032439602004</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.43290702206362</v>
+        <v>32.76739340204281</v>
       </c>
       <c r="C9">
-        <v>27.47884792908388</v>
+        <v>24.89121633309064</v>
       </c>
       <c r="D9">
-        <v>8.408217889493216</v>
+        <v>8.344700433194163</v>
       </c>
       <c r="E9">
-        <v>13.72104661796117</v>
+        <v>9.177665739160551</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.001433687693379</v>
+        <v>2.01595934247074</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.23585681004026</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>24.70382468364068</v>
+        <v>29.16177303026683</v>
       </c>
       <c r="L9">
-        <v>20.23936190610589</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>24.32112105476038</v>
+      </c>
+      <c r="N9">
+        <v>21.08868310981899</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.46852623905063</v>
+        <v>36.35430489995846</v>
       </c>
       <c r="C10">
-        <v>30.60819756720918</v>
+        <v>27.66367167836424</v>
       </c>
       <c r="D10">
-        <v>9.350170091213464</v>
+        <v>9.251294592965881</v>
       </c>
       <c r="E10">
-        <v>15.29154315747788</v>
+        <v>10.1731744503542</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.961514215360789</v>
+        <v>1.981339712936084</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.51885101099518</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>27.64950674278203</v>
+        <v>32.37760811008573</v>
       </c>
       <c r="L10">
-        <v>22.55625921283801</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>26.99083517420344</v>
+      </c>
+      <c r="N10">
+        <v>21.97519822433508</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.87174709391688</v>
+        <v>37.96958429197508</v>
       </c>
       <c r="C11">
-        <v>32.03615379921126</v>
+        <v>28.91521957831592</v>
       </c>
       <c r="D11">
-        <v>9.778300490482058</v>
+        <v>9.658534341896033</v>
       </c>
       <c r="E11">
-        <v>16.01015389506541</v>
+        <v>10.62207176015175</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.942416348489983</v>
+        <v>1.965102794346269</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>83.84569297603144</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>29.00251110642116</v>
+        <v>33.82512937666423</v>
       </c>
       <c r="L11">
-        <v>23.61414150117638</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>28.19178633133603</v>
+      </c>
+      <c r="N11">
+        <v>22.39205062552976</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.40958414480833</v>
+        <v>38.58078090346218</v>
       </c>
       <c r="C12">
-        <v>32.58025961266279</v>
+        <v>29.38935419206929</v>
       </c>
       <c r="D12">
-        <v>9.941153862298368</v>
+        <v>9.812481850180472</v>
       </c>
       <c r="E12">
-        <v>16.28437235034432</v>
+        <v>10.7920588247988</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.93499039032094</v>
+        <v>1.958851987504048</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>85.11309478629113</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>29.51966485198526</v>
+        <v>34.37280412680984</v>
       </c>
       <c r="L12">
-        <v>24.01742288853993</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>28.64608312434663</v>
+      </c>
+      <c r="N12">
+        <v>22.55235547740991</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.29339879902976</v>
+        <v>38.4491340157139</v>
       </c>
       <c r="C13">
-        <v>32.46287239245969</v>
+        <v>29.28720170586755</v>
       </c>
       <c r="D13">
-        <v>9.906032547173304</v>
+        <v>9.779329272971692</v>
       </c>
       <c r="E13">
-        <v>16.22519159168487</v>
+        <v>10.75543832718484</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.936599505740745</v>
+        <v>1.960203364771261</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>84.83968666570581</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>29.40801483530114</v>
+        <v>34.2548404909743</v>
       </c>
       <c r="L13">
-        <v>23.93040754766056</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>28.54823571804477</v>
+      </c>
+      <c r="N13">
+        <v>22.51771220869426</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.91584273976772</v>
+        <v>38.01986459461267</v>
       </c>
       <c r="C14">
-        <v>32.08083095229256</v>
+        <v>28.95421218962779</v>
       </c>
       <c r="D14">
-        <v>9.791678443237796</v>
+        <v>9.671201810194081</v>
       </c>
       <c r="E14">
-        <v>16.03266151803544</v>
+        <v>10.63605288968976</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.941809713327198</v>
+        <v>1.964590801068309</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.94977087001061</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>29.04494088860896</v>
+        <v>33.87018462741862</v>
       </c>
       <c r="L14">
-        <v>23.64725103618379</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>28.22916134237887</v>
+      </c>
+      <c r="N14">
+        <v>22.40518642658156</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.68553769739999</v>
+        <v>37.75692791012835</v>
       </c>
       <c r="C15">
-        <v>31.84735627847127</v>
+        <v>28.75032736360841</v>
       </c>
       <c r="D15">
-        <v>9.721756135567375</v>
+        <v>9.604952448226497</v>
       </c>
       <c r="E15">
-        <v>15.91505766158915</v>
+        <v>10.56294532196988</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.944973738541846</v>
+        <v>1.967263816945319</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>83.40586355194787</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>28.82327747236305</v>
+        <v>33.63457041813084</v>
       </c>
       <c r="L15">
-        <v>23.47423480401186</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>28.03370716347465</v>
+      </c>
+      <c r="N15">
+        <v>22.33659798507916</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.37752500172409</v>
+        <v>36.24856190648188</v>
       </c>
       <c r="C16">
-        <v>30.51517884536197</v>
+        <v>27.58181196825191</v>
       </c>
       <c r="D16">
-        <v>9.322244439282359</v>
+        <v>9.224614546502915</v>
       </c>
       <c r="E16">
-        <v>15.24478086126549</v>
+        <v>10.14380350632517</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.962738823768509</v>
+        <v>1.982388462456714</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.30214685882287</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>27.56157460543573</v>
+        <v>32.28283820080398</v>
       </c>
       <c r="L16">
-        <v>22.48736820173347</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>26.9121949869449</v>
+      </c>
+      <c r="N16">
+        <v>21.9482683796779</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.58280421208156</v>
+        <v>35.32021070651832</v>
       </c>
       <c r="C17">
-        <v>29.70072915594043</v>
+        <v>26.86349446688209</v>
       </c>
       <c r="D17">
-        <v>9.077542736523283</v>
+        <v>8.990267941458987</v>
       </c>
       <c r="E17">
-        <v>14.83557312142213</v>
+        <v>9.88601864725514</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.973360700631109</v>
+        <v>1.991521651841888</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.4050520195603</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>26.79268198744384</v>
+        <v>31.45075593049053</v>
       </c>
       <c r="L17">
-        <v>21.88425801948447</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>26.22165093198099</v>
+      </c>
+      <c r="N17">
+        <v>21.71382711378826</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.12755445742987</v>
+        <v>34.78456341790274</v>
       </c>
       <c r="C18">
-        <v>29.23248636322634</v>
+        <v>26.44931212484355</v>
       </c>
       <c r="D18">
-        <v>8.936703308233463</v>
+        <v>8.854956223479508</v>
       </c>
       <c r="E18">
-        <v>14.60048875095941</v>
+        <v>9.737333037835457</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.979386266984238</v>
+        <v>1.996731197030694</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.31476007927613</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>26.35143761706945</v>
+        <v>30.97058978818312</v>
       </c>
       <c r="L18">
-        <v>21.53757353405226</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>25.82308969555877</v>
+      </c>
+      <c r="N18">
+        <v>21.5802227354029</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.97365075004475</v>
+        <v>34.60286368346588</v>
       </c>
       <c r="C19">
-        <v>29.07391399115124</v>
+        <v>26.30885932805394</v>
       </c>
       <c r="D19">
-        <v>8.888981599978282</v>
+        <v>8.809039729730008</v>
       </c>
       <c r="E19">
-        <v>14.52090377298966</v>
+        <v>9.686904420801083</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.981413508480366</v>
+        <v>1.998488409647607</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.94561442299003</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>26.20213801908484</v>
+        <v>30.80769754175786</v>
       </c>
       <c r="L19">
-        <v>21.42017433576757</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>25.68786822787288</v>
+      </c>
+      <c r="N19">
+        <v>21.53518670913282</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.66719172563882</v>
+        <v>35.41919752691362</v>
       </c>
       <c r="C20">
-        <v>29.78739037516127</v>
+        <v>26.94005652546299</v>
       </c>
       <c r="D20">
-        <v>9.103596468338855</v>
+        <v>9.015265456562622</v>
       </c>
       <c r="E20">
-        <v>14.87909564981085</v>
+        <v>9.913499536620483</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.972239027701297</v>
+        <v>1.990554128301579</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.60687682092527</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>26.87441005815171</v>
+        <v>31.53948429594547</v>
       </c>
       <c r="L20">
-        <v>21.94842541632518</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>26.2952937805371</v>
+      </c>
+      <c r="N20">
+        <v>21.73865230394967</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.02653268698344</v>
+        <v>38.14594660239414</v>
       </c>
       <c r="C21">
-        <v>32.19292757094632</v>
+        <v>29.05199893346598</v>
       </c>
       <c r="D21">
-        <v>9.825239600989216</v>
+        <v>9.702964209250291</v>
       </c>
       <c r="E21">
-        <v>16.08914078551465</v>
+        <v>10.67111398515647</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.940285191567723</v>
+        <v>1.963305179134827</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>84.21089918871925</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>29.15142560810531</v>
+        <v>33.98316384959229</v>
       </c>
       <c r="L21">
-        <v>23.73032741868733</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>28.32288049937982</v>
+      </c>
+      <c r="N21">
+        <v>22.43816665040254</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.60868848252398</v>
+        <v>39.92657127532554</v>
       </c>
       <c r="C22">
-        <v>33.78681634773187</v>
+        <v>30.43454140425806</v>
       </c>
       <c r="D22">
-        <v>10.30171913678097</v>
+        <v>10.15119399107241</v>
       </c>
       <c r="E22">
-        <v>16.89333203853472</v>
+        <v>11.16664466976416</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.91822563774587</v>
+        <v>1.944878482842343</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>87.92208538397752</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>30.6697994989263</v>
+        <v>35.57870431254913</v>
       </c>
       <c r="L22">
-        <v>24.91216303937664</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>29.64624367435152</v>
+      </c>
+      <c r="N22">
+        <v>22.90999100495249</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.75916694546531</v>
+        <v>38.97557852426085</v>
       </c>
       <c r="C23">
-        <v>32.93294984813079</v>
+        <v>29.69579380123489</v>
       </c>
       <c r="D23">
-        <v>10.04663194364805</v>
+        <v>9.911882568461197</v>
       </c>
       <c r="E23">
-        <v>16.46224914423155</v>
+        <v>10.90190321201717</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.930132483442386</v>
+        <v>1.954782790372699</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>85.93444450790797</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>29.85537822462909</v>
+        <v>34.72656449944803</v>
       </c>
       <c r="L23">
-        <v>24.27889604161727</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>28.93950609600559</v>
+      </c>
+      <c r="N23">
+        <v>22.65661874966483</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.62903523307989</v>
+        <v>35.37445171883181</v>
       </c>
       <c r="C24">
-        <v>29.74821104493488</v>
+        <v>26.90544670763359</v>
       </c>
       <c r="D24">
-        <v>9.091818120716006</v>
+        <v>9.003965929384702</v>
       </c>
       <c r="E24">
-        <v>14.85941867571103</v>
+        <v>9.901076967585807</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.972746384471549</v>
+        <v>1.990991671878153</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.51563105911099</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>26.83745850426495</v>
+        <v>31.49937590498621</v>
       </c>
       <c r="L24">
-        <v>21.91941532441829</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>26.2620048073691</v>
+      </c>
+      <c r="N24">
+        <v>21.72742519855447</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.31821854538432</v>
+        <v>31.42182256914264</v>
       </c>
       <c r="C25">
-        <v>26.31642342006242</v>
+        <v>23.85315883454146</v>
       </c>
       <c r="D25">
-        <v>8.056993861934391</v>
+        <v>8.003655289397273</v>
       </c>
       <c r="E25">
-        <v>13.13878516057988</v>
+        <v>8.804470251425535</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.015603341333858</v>
+        <v>2.028447657917443</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.53788747386656</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.61563612440057</v>
+        <v>27.95450677828606</v>
       </c>
       <c r="L25">
-        <v>19.37878088056218</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>23.31805971763809</v>
+      </c>
+      <c r="N25">
+        <v>20.77165074339577</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.40259784589062</v>
+        <v>15.41802317195634</v>
       </c>
       <c r="C2">
-        <v>21.52683287406539</v>
+        <v>7.289941969428764</v>
       </c>
       <c r="D2">
-        <v>7.236033361333277</v>
+        <v>7.044170123288403</v>
       </c>
       <c r="E2">
-        <v>7.96695905021673</v>
+        <v>6.721278411288336</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.055508657764428</v>
+        <v>38.84287371624004</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.49149165013533</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>20.14275294988634</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.24267649325012</v>
+        <v>12.73406131352771</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.16266679727411</v>
       </c>
       <c r="M2">
-        <v>21.06259397994716</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>20.09517234726124</v>
+        <v>13.967658006845</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.27089679023469</v>
+        <v>14.47507585996285</v>
       </c>
       <c r="C3">
-        <v>19.88596957366443</v>
+        <v>6.869499496006297</v>
       </c>
       <c r="D3">
-        <v>6.691600169030837</v>
+        <v>6.5525365473923</v>
       </c>
       <c r="E3">
-        <v>7.374986876118959</v>
+        <v>6.623430411251245</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.073835744555781</v>
+        <v>37.77539281135836</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.40852720717865</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>19.99189418849832</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.32452539909618</v>
+        <v>11.86709549406645</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.952529827312707</v>
       </c>
       <c r="M3">
-        <v>19.46463203425621</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>19.6494991394492</v>
+        <v>14.16983473962189</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.92833162223636</v>
+        <v>13.87214951547382</v>
       </c>
       <c r="C4">
-        <v>18.84299678335369</v>
+        <v>6.599418775537773</v>
       </c>
       <c r="D4">
-        <v>6.344104027298131</v>
+        <v>6.251324519871414</v>
       </c>
       <c r="E4">
-        <v>7.000084049407356</v>
+        <v>6.566256258502771</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.085163001904809</v>
+        <v>37.14150869734178</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.36579598978764</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>19.91359970765694</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.10286414759555</v>
+        <v>11.30528194142389</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.8247012448437</v>
       </c>
       <c r="M4">
-        <v>18.44539536611966</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>19.3811641835047</v>
+        <v>14.29762806175498</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.41208542710473</v>
+        <v>13.62059955688453</v>
       </c>
       <c r="C5">
-        <v>18.40860076767554</v>
+        <v>6.486372328466763</v>
       </c>
       <c r="D5">
-        <v>6.207645433859345</v>
+        <v>6.138472299207003</v>
       </c>
       <c r="E5">
-        <v>6.877798425762781</v>
+        <v>6.54369495689471</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.089807851555393</v>
+        <v>36.88878272249185</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.35038403701373</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>19.88518537931151</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.5934562364347</v>
+        <v>11.06886051946475</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.772972892332911</v>
       </c>
       <c r="M5">
-        <v>18.02383855214244</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>19.27303461203555</v>
+        <v>14.35062849342894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.32584659455332</v>
+        <v>13.57848233749023</v>
       </c>
       <c r="C6">
-        <v>18.3358916440483</v>
+        <v>6.467421275170633</v>
       </c>
       <c r="D6">
-        <v>6.187247158182766</v>
+        <v>6.119591644903126</v>
       </c>
       <c r="E6">
-        <v>6.857444417039411</v>
+        <v>6.539993401926059</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.090581143806172</v>
+        <v>36.84715992916307</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.34794390140271</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>19.88067469422266</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.50815672935188</v>
+        <v>11.02914953996294</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.764407217395753</v>
       </c>
       <c r="M6">
-        <v>17.9680136201994</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>19.255150431043</v>
+        <v>14.35948510298916</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.92140391174251</v>
+        <v>13.86878046083648</v>
       </c>
       <c r="C7">
-        <v>18.83717687095661</v>
+        <v>6.597906258322822</v>
       </c>
       <c r="D7">
-        <v>6.342161565221578</v>
+        <v>6.249812117341218</v>
       </c>
       <c r="E7">
-        <v>6.998438133180358</v>
+        <v>6.565948993836888</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.085225514444961</v>
+        <v>37.13807750976817</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.36558011961077</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>19.91320251781105</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.09604158289028</v>
+        <v>11.30212383629369</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.824002065129024</v>
       </c>
       <c r="M7">
-        <v>18.43969943493011</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>19.37970111154264</v>
+        <v>14.29833909799588</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.67689727873482</v>
+        <v>15.09795427569834</v>
       </c>
       <c r="C8">
-        <v>20.96812435648677</v>
+        <v>7.147453284180168</v>
       </c>
       <c r="D8">
-        <v>7.050950034930994</v>
+        <v>6.878045615253352</v>
       </c>
       <c r="E8">
-        <v>7.765527002172822</v>
+        <v>6.686942188669831</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.061819001693195</v>
+        <v>38.47043452188076</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.46114427208049</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>20.08769511350203</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.59006379212032</v>
+        <v>12.44121466844869</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.089999475548916</v>
       </c>
       <c r="M8">
-        <v>20.51920377682386</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>19.94032439602004</v>
+        <v>14.03661202273317</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.76739340204281</v>
+        <v>17.40794882817171</v>
       </c>
       <c r="C9">
-        <v>24.89121633309064</v>
+        <v>8.130463496739274</v>
       </c>
       <c r="D9">
-        <v>8.344700433194163</v>
+        <v>8.015409648566067</v>
       </c>
       <c r="E9">
-        <v>9.177665739160551</v>
+        <v>6.946898687790498</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.01595934247074</v>
+        <v>41.24692289319187</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.71643157346992</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>20.54848523067828</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>29.16177303026683</v>
+        <v>14.4439048659247</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.618585707424065</v>
       </c>
       <c r="M9">
-        <v>24.32112105476038</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>21.08868310981899</v>
+        <v>13.55223513696974</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.35430489995846</v>
+        <v>19.04910231196129</v>
       </c>
       <c r="C10">
-        <v>27.66367167836424</v>
+        <v>8.795673843734777</v>
       </c>
       <c r="D10">
-        <v>9.251294592965881</v>
+        <v>8.775288937917271</v>
       </c>
       <c r="E10">
-        <v>10.1731744503542</v>
+        <v>7.151215877845724</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.981339712936084</v>
+        <v>43.37778843228568</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.94907470602926</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20.96581992598192</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>32.37760811008573</v>
+        <v>15.77876812553125</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.008173820649787</v>
       </c>
       <c r="M10">
-        <v>26.99083517420344</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>21.97519822433508</v>
+        <v>13.21388145377569</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.96958429197508</v>
+        <v>19.76063669716755</v>
       </c>
       <c r="C11">
-        <v>28.91521957831592</v>
+        <v>9.086239661920374</v>
       </c>
       <c r="D11">
-        <v>9.658534341896033</v>
+        <v>9.10515809237423</v>
       </c>
       <c r="E11">
-        <v>10.62207176015175</v>
+        <v>7.246953094107535</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.965102794346269</v>
+        <v>44.36548239201976</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>13.06547972010938</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>21.17412925718396</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>33.82512937666423</v>
+        <v>16.35741167065855</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.185162478198894</v>
       </c>
       <c r="M11">
-        <v>28.19178633133603</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>22.39205062552976</v>
+        <v>13.06378985744362</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.58078090346218</v>
+        <v>20.02513516878171</v>
       </c>
       <c r="C12">
-        <v>29.38935419206929</v>
+        <v>9.194573822380521</v>
       </c>
       <c r="D12">
-        <v>9.812481850180472</v>
+        <v>9.227852868980499</v>
       </c>
       <c r="E12">
-        <v>10.7920588247988</v>
+        <v>7.283599551781643</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.958851987504048</v>
+        <v>44.74205314318669</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>13.11114358786453</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>21.25577357383227</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>34.37280412680984</v>
+        <v>16.57250685049715</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.25211570457315</v>
       </c>
       <c r="M12">
-        <v>28.64608312434663</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>22.55235547740991</v>
+        <v>13.00751191794213</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.4491340157139</v>
+        <v>19.96838900087731</v>
       </c>
       <c r="C13">
-        <v>29.28720170586755</v>
+        <v>9.171316955540751</v>
       </c>
       <c r="D13">
-        <v>9.779329272971692</v>
+        <v>9.20152618759278</v>
       </c>
       <c r="E13">
-        <v>10.75543832718484</v>
+        <v>7.275689732408969</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.960203364771261</v>
+        <v>44.66083932996966</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>13.10123759801147</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>21.2380654462391</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>34.2548404909743</v>
+        <v>16.52635980167031</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.237699645129075</v>
       </c>
       <c r="M13">
-        <v>28.54823571804477</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>22.51771220869426</v>
+        <v>13.0196073673558</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.01986459461267</v>
+        <v>19.78249566714714</v>
       </c>
       <c r="C14">
-        <v>28.95421218962779</v>
+        <v>9.09518615942398</v>
       </c>
       <c r="D14">
-        <v>9.671201810194081</v>
+        <v>9.115296432496313</v>
       </c>
       <c r="E14">
-        <v>10.63605288968976</v>
+        <v>7.249960191671764</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.964590801068309</v>
+        <v>44.39641229519987</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>13.0692044061037</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>21.1807902101348</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>33.87018462741862</v>
+        <v>16.37518782014615</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.19067230437078</v>
       </c>
       <c r="M14">
-        <v>28.22916134237887</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>22.40518642658156</v>
+        <v>13.05914858358148</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.75692791012835</v>
+        <v>19.66798968214748</v>
       </c>
       <c r="C15">
-        <v>28.75032736360841</v>
+        <v>9.048334032911557</v>
       </c>
       <c r="D15">
-        <v>9.604952448226497</v>
+        <v>9.06219080058794</v>
       </c>
       <c r="E15">
-        <v>10.56294532196988</v>
+        <v>7.234251031646571</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.967263816945319</v>
+        <v>44.23477360528516</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>13.04979130435176</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>21.14607037844499</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>33.63457041813084</v>
+        <v>16.28206917807734</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.161856881347553</v>
       </c>
       <c r="M15">
-        <v>28.03370716347465</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>22.33659798507916</v>
+        <v>13.08344176198451</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.24856190648188</v>
+        <v>19.00190470884703</v>
       </c>
       <c r="C16">
-        <v>27.58181196825191</v>
+        <v>8.776445177049562</v>
       </c>
       <c r="D16">
-        <v>9.224614546502915</v>
+        <v>8.753417663776057</v>
       </c>
       <c r="E16">
-        <v>10.14380350632517</v>
+        <v>7.145014642552488</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.982388462456714</v>
+        <v>43.31360133841438</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.94168553370311</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20.95258708021206</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>32.28283820080398</v>
+        <v>15.74038436255628</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.9965993098171</v>
       </c>
       <c r="M16">
-        <v>26.9121949869449</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>21.9482683796779</v>
+        <v>13.22376791358139</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.32021070651832</v>
+        <v>18.58437407761516</v>
       </c>
       <c r="C17">
-        <v>26.86349446688209</v>
+        <v>8.606588383667795</v>
       </c>
       <c r="D17">
-        <v>8.990267941458987</v>
+        <v>8.559984388438975</v>
       </c>
       <c r="E17">
-        <v>9.88601864725514</v>
+        <v>7.090979619085476</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.991521651841888</v>
+        <v>42.75311907462312</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.87811924952001</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20.83869607886094</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>31.45075593049053</v>
+        <v>15.40081518583122</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.895131564484623</v>
       </c>
       <c r="M17">
-        <v>26.22165093198099</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>21.71382711378826</v>
+        <v>13.31083829817525</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.78456341790274</v>
+        <v>18.34091776881182</v>
       </c>
       <c r="C18">
-        <v>26.44931212484355</v>
+        <v>8.507755274307366</v>
       </c>
       <c r="D18">
-        <v>8.854956223479508</v>
+        <v>8.44723580778691</v>
       </c>
       <c r="E18">
-        <v>9.737333037835457</v>
+        <v>7.060163385840876</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.996731197030694</v>
+        <v>42.43247495876826</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.8425491212181</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>20.77492029882675</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>30.97058978818312</v>
+        <v>15.2028071881016</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.836749302646894</v>
       </c>
       <c r="M18">
-        <v>25.82308969555877</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>21.5802227354029</v>
+        <v>13.36127841360196</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.60286368346588</v>
+        <v>18.2579175038409</v>
       </c>
       <c r="C19">
-        <v>26.30885932805394</v>
+        <v>8.474096039003266</v>
       </c>
       <c r="D19">
-        <v>8.809039729730008</v>
+        <v>8.408803450886666</v>
       </c>
       <c r="E19">
-        <v>9.686904420801083</v>
+        <v>7.049775042847005</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.998488409647607</v>
+        <v>42.32421083302689</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.83067406843478</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>20.75362100634272</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>30.80769754175786</v>
+        <v>15.13529934768006</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.816979689940124</v>
       </c>
       <c r="M19">
-        <v>25.68786822787288</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>21.53518670913282</v>
+        <v>13.37841813420145</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.41919752691362</v>
+        <v>18.62916219679098</v>
       </c>
       <c r="C20">
-        <v>26.94005652546299</v>
+        <v>8.624787269976062</v>
       </c>
       <c r="D20">
-        <v>9.015265456562622</v>
+        <v>8.580729616664524</v>
       </c>
       <c r="E20">
-        <v>9.913499536620483</v>
+        <v>7.096704557822865</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.990554128301579</v>
+        <v>42.81260502176873</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.8847829157751</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>20.85064001061126</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>31.53948429594547</v>
+        <v>15.43724139962521</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.905935395065204</v>
       </c>
       <c r="M20">
-        <v>26.2952937805371</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>21.73865230394967</v>
+        <v>13.30153225013452</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.14594660239414</v>
+        <v>19.83723043971213</v>
       </c>
       <c r="C21">
-        <v>29.05199893346598</v>
+        <v>9.117593356520667</v>
       </c>
       <c r="D21">
-        <v>9.702964209250291</v>
+        <v>9.140683999949037</v>
       </c>
       <c r="E21">
-        <v>10.67111398515647</v>
+        <v>7.257506981873892</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.963305179134827</v>
+        <v>44.47401214691057</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>13.07856983771129</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>21.19753751356513</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.98316384959229</v>
+        <v>16.41969919933316</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.204487471326727</v>
       </c>
       <c r="M21">
-        <v>28.32288049937982</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>22.43816665040254</v>
+        <v>13.04751912779665</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.92657127532554</v>
+        <v>20.59800406982443</v>
       </c>
       <c r="C22">
-        <v>30.43454140425806</v>
+        <v>9.429801743090401</v>
       </c>
       <c r="D22">
-        <v>10.15119399107241</v>
+        <v>9.493736549932091</v>
       </c>
       <c r="E22">
-        <v>11.16664466976416</v>
+        <v>7.364887577115343</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.944878482842343</v>
+        <v>45.5747045870059</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.21448276789784</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>21.4404054281147</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>35.57870431254913</v>
+        <v>17.03837851054883</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.39919851491922</v>
       </c>
       <c r="M22">
-        <v>29.64624367435152</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>22.90999100495249</v>
+        <v>12.88476899146325</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.97557852426085</v>
+        <v>20.19456404510838</v>
       </c>
       <c r="C23">
-        <v>29.69579380123489</v>
+        <v>9.264059833095729</v>
       </c>
       <c r="D23">
-        <v>9.911882568461197</v>
+        <v>9.306468638518682</v>
       </c>
       <c r="E23">
-        <v>10.90190321201717</v>
+        <v>7.307369760943798</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.954782790372699</v>
+        <v>44.98590214074564</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>13.14107480082709</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>21.30926873959957</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>34.72656449944803</v>
+        <v>16.71028979168394</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.295324477840737</v>
       </c>
       <c r="M23">
-        <v>28.93950609600559</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>22.65661874966483</v>
+        <v>12.97132954403705</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.37445171883181</v>
+        <v>18.6089241239291</v>
       </c>
       <c r="C24">
-        <v>26.90544670763359</v>
+        <v>8.616563232002271</v>
       </c>
       <c r="D24">
-        <v>9.003965929384702</v>
+        <v>8.57135550349336</v>
       </c>
       <c r="E24">
-        <v>9.901076967585807</v>
+        <v>7.094115536069856</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.990991671878153</v>
+        <v>42.78570648226756</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.88176724019817</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>20.84523486683733</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>31.49937590498621</v>
+        <v>15.4207817900126</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.901051127266225</v>
       </c>
       <c r="M24">
-        <v>26.2620048073691</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>21.72742519855447</v>
+        <v>13.30573832457494</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.42182256914264</v>
+        <v>16.77193476923214</v>
       </c>
       <c r="C25">
-        <v>23.85315883454146</v>
+        <v>7.874627007814975</v>
       </c>
       <c r="D25">
-        <v>8.003655289397273</v>
+        <v>7.721227173789165</v>
       </c>
       <c r="E25">
-        <v>8.804470251425535</v>
+        <v>6.874195422604072</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.028447657917443</v>
+        <v>40.47924935908036</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.63971627657065</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>20.41045080213009</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.95450677828606</v>
+        <v>13.92642695206272</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.475175462070046</v>
       </c>
       <c r="M25">
-        <v>23.31805971763809</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>20.77165074339577</v>
+        <v>13.68019722963773</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.41802317195634</v>
+        <v>14.90021176114846</v>
       </c>
       <c r="C2">
-        <v>7.289941969428764</v>
+        <v>5.330209548440743</v>
       </c>
       <c r="D2">
-        <v>7.044170123288403</v>
+        <v>6.020759350076236</v>
       </c>
       <c r="E2">
-        <v>6.721278411288336</v>
+        <v>10.43793165818004</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>38.84287371624004</v>
+        <v>46.39291866735508</v>
       </c>
       <c r="H2">
-        <v>12.49149165013533</v>
+        <v>18.5860839782774</v>
       </c>
       <c r="I2">
-        <v>20.14275294988634</v>
+        <v>28.85175970459092</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.73406131352771</v>
+        <v>12.5918413512403</v>
       </c>
       <c r="L2">
-        <v>7.16266679727411</v>
+        <v>10.17318235093565</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.967658006845</v>
+        <v>21.23229170580766</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.47507585996285</v>
+        <v>14.68705456091702</v>
       </c>
       <c r="C3">
-        <v>6.869499496006297</v>
+        <v>5.145630984522278</v>
       </c>
       <c r="D3">
-        <v>6.5525365473923</v>
+        <v>5.908435913015204</v>
       </c>
       <c r="E3">
-        <v>6.623430411251245</v>
+        <v>10.44629139534924</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>37.77539281135836</v>
+        <v>46.29666572455955</v>
       </c>
       <c r="H3">
-        <v>12.40852720717865</v>
+        <v>18.61565104584932</v>
       </c>
       <c r="I3">
-        <v>19.99189418849832</v>
+        <v>28.8952854522726</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.86709549406645</v>
+        <v>12.44222970845614</v>
       </c>
       <c r="L3">
-        <v>6.952529827312707</v>
+        <v>10.16225546188473</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.16983473962189</v>
+        <v>21.29187332479179</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.87214951547382</v>
+        <v>14.55844593749071</v>
       </c>
       <c r="C4">
-        <v>6.599418775537773</v>
+        <v>5.027636119279143</v>
       </c>
       <c r="D4">
-        <v>6.251324519871414</v>
+        <v>5.840204445846966</v>
       </c>
       <c r="E4">
-        <v>6.566256258502771</v>
+        <v>10.45303375933569</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>37.14150869734178</v>
+        <v>46.24964604369455</v>
       </c>
       <c r="H4">
-        <v>12.36579598978764</v>
+        <v>18.63695230465499</v>
       </c>
       <c r="I4">
-        <v>19.91359970765694</v>
+        <v>28.92734068874117</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.30528194142389</v>
+        <v>12.35259927321732</v>
       </c>
       <c r="L4">
-        <v>6.8247012448437</v>
+        <v>10.15743497825742</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.29762806175498</v>
+        <v>21.3303403369765</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.62059955688453</v>
+        <v>14.50667575058209</v>
       </c>
       <c r="C5">
-        <v>6.486372328466763</v>
+        <v>4.978416087742681</v>
       </c>
       <c r="D5">
-        <v>6.138472299207003</v>
+        <v>5.812626119856652</v>
       </c>
       <c r="E5">
-        <v>6.54369495689471</v>
+        <v>10.45618635211789</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>36.88878272249185</v>
+        <v>46.23353197494709</v>
       </c>
       <c r="H5">
-        <v>12.35038403701373</v>
+        <v>18.64642312019163</v>
       </c>
       <c r="I5">
-        <v>19.88518537931151</v>
+        <v>28.94174155977483</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.06886051946475</v>
+        <v>12.31667825161544</v>
       </c>
       <c r="L5">
-        <v>6.772972892332911</v>
+        <v>10.15594726843372</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.35062849342894</v>
+        <v>21.34649049980858</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.57848233749023</v>
+        <v>14.49811990006581</v>
       </c>
       <c r="C6">
-        <v>6.467421275170633</v>
+        <v>4.970175662383449</v>
       </c>
       <c r="D6">
-        <v>6.119591644903126</v>
+        <v>5.808061659436435</v>
       </c>
       <c r="E6">
-        <v>6.539993401926059</v>
+        <v>10.45673430759657</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>36.84715992916307</v>
+        <v>46.23104047527448</v>
       </c>
       <c r="H6">
-        <v>12.34794390140271</v>
+        <v>18.64804344861745</v>
       </c>
       <c r="I6">
-        <v>19.88067469422266</v>
+        <v>28.94421356073894</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.02914953996294</v>
+        <v>12.31075131074335</v>
       </c>
       <c r="L6">
-        <v>6.764407217395753</v>
+        <v>10.15572907085471</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.35948510298916</v>
+        <v>21.34920090940291</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.86878046083648</v>
+        <v>14.55774507097078</v>
       </c>
       <c r="C7">
-        <v>6.597906258322822</v>
+        <v>5.026976869879751</v>
       </c>
       <c r="D7">
-        <v>6.249812117341218</v>
+        <v>5.839831542587238</v>
       </c>
       <c r="E7">
-        <v>6.565948993836888</v>
+        <v>10.45307463602322</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>37.13807750976817</v>
+        <v>46.24941637746689</v>
       </c>
       <c r="H7">
-        <v>12.36558011961077</v>
+        <v>18.63707683255547</v>
       </c>
       <c r="I7">
-        <v>19.91320251781105</v>
+        <v>28.92752948921245</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.30212383629369</v>
+        <v>12.35211232793686</v>
       </c>
       <c r="L7">
-        <v>6.824002065129024</v>
+        <v>10.15741298234133</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.29833909799588</v>
+        <v>21.33055622116502</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.09795427569834</v>
+        <v>14.82628485143868</v>
       </c>
       <c r="C8">
-        <v>7.147453284180168</v>
+        <v>5.267555163889893</v>
       </c>
       <c r="D8">
-        <v>6.878045615253352</v>
+        <v>5.981902455546345</v>
       </c>
       <c r="E8">
-        <v>6.686942188669831</v>
+        <v>10.44048026874133</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>38.47043452188076</v>
+        <v>46.35722989982846</v>
       </c>
       <c r="H8">
-        <v>12.46114427208049</v>
+        <v>18.59562501605034</v>
       </c>
       <c r="I8">
-        <v>20.08769511350203</v>
+        <v>28.8656598236049</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.44121466844869</v>
+        <v>12.53981816149846</v>
       </c>
       <c r="L8">
-        <v>7.089999475548916</v>
+        <v>10.169023904906</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.03661202273317</v>
+        <v>21.2524450271058</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.40794882817171</v>
+        <v>15.3678925899235</v>
       </c>
       <c r="C9">
-        <v>8.130463496739274</v>
+        <v>5.700941413780372</v>
       </c>
       <c r="D9">
-        <v>8.015409648566067</v>
+        <v>6.264528317746003</v>
       </c>
       <c r="E9">
-        <v>6.946898687790498</v>
+        <v>10.42853645491163</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>41.24692289319187</v>
+        <v>46.66395947127526</v>
       </c>
       <c r="H9">
-        <v>12.71643157346992</v>
+        <v>18.53934667708307</v>
       </c>
       <c r="I9">
-        <v>20.54848523067828</v>
+        <v>28.78671760684734</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.4439048659247</v>
+        <v>12.92368090084018</v>
       </c>
       <c r="L9">
-        <v>7.618585707424065</v>
+        <v>10.20668980254777</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.55223513696974</v>
+        <v>21.11417424279068</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.04910231196129</v>
+        <v>15.77091535306504</v>
       </c>
       <c r="C10">
-        <v>8.795673843734777</v>
+        <v>5.994356445431662</v>
       </c>
       <c r="D10">
-        <v>8.775288937917271</v>
+        <v>6.472253523150679</v>
       </c>
       <c r="E10">
-        <v>7.151215877845724</v>
+        <v>10.42750995356136</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.37778843228568</v>
+        <v>46.94649226726382</v>
       </c>
       <c r="H10">
-        <v>12.94907470602926</v>
+        <v>18.51329253261621</v>
       </c>
       <c r="I10">
-        <v>20.96581992598192</v>
+        <v>28.75466791990288</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.77876812553125</v>
+        <v>13.21268323190867</v>
       </c>
       <c r="L10">
-        <v>8.008173820649787</v>
+        <v>10.24330831033181</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.21388145377569</v>
+        <v>21.0216149422966</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.76063669716755</v>
+        <v>15.95452498709916</v>
       </c>
       <c r="C11">
-        <v>9.086239661920374</v>
+        <v>6.122143092691299</v>
       </c>
       <c r="D11">
-        <v>9.10515809237423</v>
+        <v>6.56629100660181</v>
       </c>
       <c r="E11">
-        <v>7.246953094107535</v>
+        <v>10.42871785559049</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.36548239201976</v>
+        <v>47.08717842356408</v>
       </c>
       <c r="H11">
-        <v>13.06547972010938</v>
+        <v>18.50476809295085</v>
       </c>
       <c r="I11">
-        <v>21.17412925718396</v>
+        <v>28.74573980073621</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.35741167065855</v>
+        <v>13.34510951031726</v>
       </c>
       <c r="L11">
-        <v>8.185162478198894</v>
+        <v>10.26187421158815</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.06378985744362</v>
+        <v>20.98145551138942</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.02513516878171</v>
+        <v>16.02402383395482</v>
       </c>
       <c r="C12">
-        <v>9.194573822380521</v>
+        <v>6.169695888264929</v>
       </c>
       <c r="D12">
-        <v>9.227852868980499</v>
+        <v>6.601796925143965</v>
       </c>
       <c r="E12">
-        <v>7.283599551781643</v>
+        <v>10.42941524335505</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.74205314318669</v>
+        <v>47.14217435524659</v>
       </c>
       <c r="H12">
-        <v>13.11114358786453</v>
+        <v>18.50201893980633</v>
       </c>
       <c r="I12">
-        <v>21.25577357383227</v>
+        <v>28.74317242282136</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.57250685049715</v>
+        <v>13.39534689192082</v>
       </c>
       <c r="L12">
-        <v>8.25211570457315</v>
+        <v>10.26917550166567</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.00751191794213</v>
+        <v>20.96652719984706</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.96838900087731</v>
+        <v>16.00905843618747</v>
       </c>
       <c r="C13">
-        <v>9.171316955540751</v>
+        <v>6.159492055438616</v>
       </c>
       <c r="D13">
-        <v>9.20152618759278</v>
+        <v>6.594155305681139</v>
       </c>
       <c r="E13">
-        <v>7.275689732408969</v>
+        <v>10.42925439009757</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.66083932996966</v>
+        <v>47.13025391845322</v>
       </c>
       <c r="H13">
-        <v>13.10123759801147</v>
+        <v>18.5025897176261</v>
       </c>
       <c r="I13">
-        <v>21.2380654462391</v>
+        <v>28.74368916309535</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.52635980167031</v>
+        <v>13.38452409607557</v>
       </c>
       <c r="L13">
-        <v>8.237699645129075</v>
+        <v>10.26759105498748</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.0196073673558</v>
+        <v>20.96972987218502</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.78249566714714</v>
+        <v>15.96024369289845</v>
       </c>
       <c r="C14">
-        <v>9.09518615942398</v>
+        <v>6.126072169304442</v>
       </c>
       <c r="D14">
-        <v>9.115296432496313</v>
+        <v>6.569214397099731</v>
       </c>
       <c r="E14">
-        <v>7.249960191671764</v>
+        <v>10.42877042584896</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.39641229519987</v>
+        <v>47.09166864581209</v>
       </c>
       <c r="H14">
-        <v>13.0692044061037</v>
+        <v>18.50453231986598</v>
       </c>
       <c r="I14">
-        <v>21.1807902101348</v>
+        <v>28.74551227359011</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.37518782014615</v>
+        <v>13.34924102586973</v>
       </c>
       <c r="L14">
-        <v>8.19067230437078</v>
+        <v>10.2624694876859</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.05914858358148</v>
+        <v>20.9802217585668</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.66798968214748</v>
+        <v>15.93033730541191</v>
       </c>
       <c r="C15">
-        <v>9.048334032911557</v>
+        <v>6.105491969488639</v>
       </c>
       <c r="D15">
-        <v>9.06219080058794</v>
+        <v>6.553922719873776</v>
       </c>
       <c r="E15">
-        <v>7.234251031646571</v>
+        <v>10.42850520895941</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.23477360528516</v>
+        <v>47.06825732838525</v>
       </c>
       <c r="H15">
-        <v>13.04979130435176</v>
+        <v>18.50578458990056</v>
       </c>
       <c r="I15">
-        <v>21.14607037844499</v>
+        <v>28.74673494280577</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.28206917807734</v>
+        <v>13.32763951176596</v>
       </c>
       <c r="L15">
-        <v>8.161856881347553</v>
+        <v>10.25936753303334</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.08344176198451</v>
+        <v>20.98668468141041</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.00190470884703</v>
+        <v>15.75891554460304</v>
       </c>
       <c r="C16">
-        <v>8.776445177049562</v>
+        <v>5.98588910814698</v>
       </c>
       <c r="D16">
-        <v>8.753417663776057</v>
+        <v>6.46609543260693</v>
       </c>
       <c r="E16">
-        <v>7.145014642552488</v>
+        <v>10.42746464573697</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.31360133841438</v>
+        <v>46.93754051042844</v>
       </c>
       <c r="H16">
-        <v>12.94168553370311</v>
+        <v>18.51391662026736</v>
       </c>
       <c r="I16">
-        <v>20.95258708021206</v>
+        <v>28.75536519454244</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.74038436255628</v>
+        <v>13.20404407549149</v>
       </c>
       <c r="L16">
-        <v>7.9965993098171</v>
+        <v>10.24213307910482</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.22376791358139</v>
+        <v>21.02427856098301</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.58437407761516</v>
+        <v>15.65377371385966</v>
       </c>
       <c r="C17">
-        <v>8.606588383667795</v>
+        <v>5.911044989131022</v>
       </c>
       <c r="D17">
-        <v>8.559984388438975</v>
+        <v>6.412071225940257</v>
       </c>
       <c r="E17">
-        <v>7.090979619085476</v>
+        <v>10.42725468881389</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.75311907462312</v>
+        <v>46.86044592781927</v>
       </c>
       <c r="H17">
-        <v>12.87811924952001</v>
+        <v>18.51975796395347</v>
       </c>
       <c r="I17">
-        <v>20.83869607886094</v>
+        <v>28.76210775184713</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.40081518583122</v>
+        <v>13.12843370113272</v>
       </c>
       <c r="L17">
-        <v>7.895131564484623</v>
+        <v>10.23204652380234</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.31083829817525</v>
+        <v>21.04783918449838</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.34091776881182</v>
+        <v>15.59332860384955</v>
       </c>
       <c r="C18">
-        <v>8.507755274307366</v>
+        <v>5.867462087435651</v>
       </c>
       <c r="D18">
-        <v>8.44723580778691</v>
+        <v>6.380957019360077</v>
       </c>
       <c r="E18">
-        <v>7.060163385840876</v>
+        <v>10.42729163179886</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.43247495876826</v>
+        <v>46.81724961050958</v>
       </c>
       <c r="H18">
-        <v>12.8425491212181</v>
+        <v>18.52343096072927</v>
       </c>
       <c r="I18">
-        <v>20.77492029882675</v>
+        <v>28.76651780514901</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.2028071881016</v>
+        <v>13.08503754805409</v>
       </c>
       <c r="L18">
-        <v>7.836749302646894</v>
+        <v>10.22642482307264</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.36127841360196</v>
+        <v>21.06157386216386</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.2579175038409</v>
+        <v>15.5728701719804</v>
       </c>
       <c r="C19">
-        <v>8.474096039003266</v>
+        <v>5.852614484149032</v>
       </c>
       <c r="D19">
-        <v>8.408803450886666</v>
+        <v>6.37041645143618</v>
       </c>
       <c r="E19">
-        <v>7.049775042847005</v>
+        <v>10.42733125040353</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.32421083302689</v>
+        <v>46.80282177441565</v>
       </c>
       <c r="H19">
-        <v>12.83067406843478</v>
+        <v>18.52472835537506</v>
       </c>
       <c r="I19">
-        <v>20.75362100634272</v>
+        <v>28.76810229873866</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.13529934768006</v>
+        <v>13.07036177001618</v>
       </c>
       <c r="L19">
-        <v>7.816979689940124</v>
+        <v>10.22455240000225</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.37841813420145</v>
+        <v>21.06625567896188</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.62916219679098</v>
+        <v>15.66496367693591</v>
       </c>
       <c r="C20">
-        <v>8.624787269976062</v>
+        <v>5.919067743657164</v>
       </c>
       <c r="D20">
-        <v>8.580729616664524</v>
+        <v>6.417826711894457</v>
       </c>
       <c r="E20">
-        <v>7.096704557822865</v>
+        <v>10.42726072313935</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.81260502176873</v>
+        <v>46.86853431488166</v>
       </c>
       <c r="H20">
-        <v>12.8847829157751</v>
+        <v>18.51910372379328</v>
       </c>
       <c r="I20">
-        <v>20.85064001061126</v>
+        <v>28.76133493691631</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.43724139962521</v>
+        <v>13.13647328100633</v>
       </c>
       <c r="L20">
-        <v>7.905935395065204</v>
+        <v>10.23310166919699</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.30153225013452</v>
+        <v>21.0453121572005</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.83723043971213</v>
+        <v>15.9745831265924</v>
       </c>
       <c r="C21">
-        <v>9.117593356520667</v>
+        <v>6.135911261484555</v>
       </c>
       <c r="D21">
-        <v>9.140683999949037</v>
+        <v>6.57654326522302</v>
       </c>
       <c r="E21">
-        <v>7.257506981873892</v>
+        <v>10.42890607227542</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.47401214691057</v>
+        <v>47.10295559831499</v>
       </c>
       <c r="H21">
-        <v>13.07856983771129</v>
+        <v>18.50394873224474</v>
       </c>
       <c r="I21">
-        <v>21.19753751356513</v>
+        <v>28.74495469858835</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.41969919933316</v>
+        <v>13.35960243788269</v>
       </c>
       <c r="L21">
-        <v>8.204487471326727</v>
+        <v>10.26396649704802</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.04751912779665</v>
+        <v>20.97713246526909</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.59800406982443</v>
+        <v>16.17673103038903</v>
       </c>
       <c r="C22">
-        <v>9.429801743090401</v>
+        <v>6.272743942367506</v>
       </c>
       <c r="D22">
-        <v>9.493736549932091</v>
+        <v>6.679650941577943</v>
       </c>
       <c r="E22">
-        <v>7.364887577115343</v>
+        <v>10.43137971979507</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.5747045870059</v>
+        <v>47.26618077994058</v>
       </c>
       <c r="H22">
-        <v>13.21448276789784</v>
+        <v>18.49683531687207</v>
       </c>
       <c r="I22">
-        <v>21.4404054281147</v>
+        <v>28.73899114374142</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.03837851054883</v>
+        <v>13.50593595644707</v>
       </c>
       <c r="L22">
-        <v>8.39919851491922</v>
+        <v>10.28571493095819</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.88476899146325</v>
+        <v>20.93420014850861</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.19456404510838</v>
+        <v>16.06888212735618</v>
       </c>
       <c r="C23">
-        <v>9.264059833095729</v>
+        <v>6.200166576966932</v>
       </c>
       <c r="D23">
-        <v>9.306468638518682</v>
+        <v>6.624689548633773</v>
       </c>
       <c r="E23">
-        <v>7.307369760943798</v>
+        <v>10.42993185514413</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.98590214074564</v>
+        <v>47.17815768107537</v>
       </c>
       <c r="H23">
-        <v>13.14107480082709</v>
+        <v>18.50037640985767</v>
       </c>
       <c r="I23">
-        <v>21.30926873959957</v>
+        <v>28.74173993881595</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.71028979168394</v>
+        <v>13.42780414472091</v>
       </c>
       <c r="L23">
-        <v>8.295324477840737</v>
+        <v>10.27396439096417</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.97132954403705</v>
+        <v>20.95696527669654</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.6089241239291</v>
+        <v>15.65990468204203</v>
       </c>
       <c r="C24">
-        <v>8.616563232002271</v>
+        <v>5.915442380583046</v>
       </c>
       <c r="D24">
-        <v>8.57135550349336</v>
+        <v>6.415224825016544</v>
       </c>
       <c r="E24">
-        <v>7.094115536069856</v>
+        <v>10.42725750390296</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.78570648226756</v>
+        <v>46.86487404430477</v>
       </c>
       <c r="H24">
-        <v>12.88176724019817</v>
+        <v>18.51939852537264</v>
       </c>
       <c r="I24">
-        <v>20.84523486683733</v>
+        <v>28.76168266419571</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.4207817900126</v>
+        <v>13.13283835512118</v>
       </c>
       <c r="L24">
-        <v>7.901051127266225</v>
+        <v>10.23262408575715</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.30573832457494</v>
+        <v>21.04645403628593</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.77193476923214</v>
+        <v>15.22018648757077</v>
       </c>
       <c r="C25">
-        <v>7.874627007814975</v>
+        <v>5.587986557767452</v>
       </c>
       <c r="D25">
-        <v>7.721227173789165</v>
+        <v>6.187888830422147</v>
       </c>
       <c r="E25">
-        <v>6.874195422604072</v>
+        <v>10.43040450785229</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>40.47924935908036</v>
+        <v>46.57086057952654</v>
       </c>
       <c r="H25">
-        <v>12.63971627657065</v>
+        <v>18.55188862188079</v>
       </c>
       <c r="I25">
-        <v>20.41045080213009</v>
+        <v>28.80352338119646</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.92642695206272</v>
+        <v>12.81841837655858</v>
       </c>
       <c r="L25">
-        <v>7.475175462070046</v>
+        <v>10.19491820424021</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.68019722963773</v>
+        <v>21.14999056211266</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.90021176114846</v>
+        <v>15.41802317195634</v>
       </c>
       <c r="C2">
-        <v>5.330209548440743</v>
+        <v>7.289941969428744</v>
       </c>
       <c r="D2">
-        <v>6.020759350076236</v>
+        <v>7.044170123288477</v>
       </c>
       <c r="E2">
-        <v>10.43793165818004</v>
+        <v>6.721278411288288</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.39291866735508</v>
+        <v>38.84287371624004</v>
       </c>
       <c r="H2">
-        <v>18.5860839782774</v>
+        <v>12.49149165013543</v>
       </c>
       <c r="I2">
-        <v>28.85175970459092</v>
+        <v>20.14275294988636</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.5918413512403</v>
+        <v>12.73406131352771</v>
       </c>
       <c r="L2">
-        <v>10.17318235093565</v>
+        <v>7.162666797274032</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.23229170580766</v>
+        <v>13.96765800684501</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.68705456091702</v>
+        <v>14.47507585996287</v>
       </c>
       <c r="C3">
-        <v>5.145630984522278</v>
+        <v>6.869499496006393</v>
       </c>
       <c r="D3">
-        <v>5.908435913015204</v>
+        <v>6.552536547392308</v>
       </c>
       <c r="E3">
-        <v>10.44629139534924</v>
+        <v>6.623430411251293</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>46.29666572455955</v>
+        <v>37.77539281135848</v>
       </c>
       <c r="H3">
-        <v>18.61565104584932</v>
+        <v>12.40852720717881</v>
       </c>
       <c r="I3">
-        <v>28.8952854522726</v>
+        <v>19.99189418849851</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.44222970845614</v>
+        <v>11.86709549406641</v>
       </c>
       <c r="L3">
-        <v>10.16225546188473</v>
+        <v>6.9525298273127</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.29187332479179</v>
+        <v>14.16983473962195</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.55844593749071</v>
+        <v>13.87214951547385</v>
       </c>
       <c r="C4">
-        <v>5.027636119279143</v>
+        <v>6.599418775537387</v>
       </c>
       <c r="D4">
-        <v>5.840204445846966</v>
+        <v>6.251324519871382</v>
       </c>
       <c r="E4">
-        <v>10.45303375933569</v>
+        <v>6.566256258502634</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>46.24964604369455</v>
+        <v>37.14150869734199</v>
       </c>
       <c r="H4">
-        <v>18.63695230465499</v>
+        <v>12.36579598978761</v>
       </c>
       <c r="I4">
-        <v>28.92734068874117</v>
+        <v>19.91359970765693</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.35259927321732</v>
+        <v>11.30528194142388</v>
       </c>
       <c r="L4">
-        <v>10.15743497825742</v>
+        <v>6.824701244843657</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.3303403369765</v>
+        <v>14.29762806175495</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.50667575058209</v>
+        <v>13.62059955688453</v>
       </c>
       <c r="C5">
-        <v>4.978416087742681</v>
+        <v>6.486372328467013</v>
       </c>
       <c r="D5">
-        <v>5.812626119856652</v>
+        <v>6.138472299207036</v>
       </c>
       <c r="E5">
-        <v>10.45618635211789</v>
+        <v>6.543694956894656</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>46.23353197494709</v>
+        <v>36.88878272249178</v>
       </c>
       <c r="H5">
-        <v>18.64642312019163</v>
+        <v>12.35038403701363</v>
       </c>
       <c r="I5">
-        <v>28.94174155977483</v>
+        <v>19.88518537931143</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.31667825161544</v>
+        <v>11.06886051946479</v>
       </c>
       <c r="L5">
-        <v>10.15594726843372</v>
+        <v>6.772972892332814</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.34649049980858</v>
+        <v>14.35062849342886</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.49811990006581</v>
+        <v>13.57848233749027</v>
       </c>
       <c r="C6">
-        <v>4.970175662383449</v>
+        <v>6.467421275170896</v>
       </c>
       <c r="D6">
-        <v>5.808061659436435</v>
+        <v>6.119591644903126</v>
       </c>
       <c r="E6">
-        <v>10.45673430759657</v>
+        <v>6.539993401926115</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46.23104047527448</v>
+        <v>36.84715992916309</v>
       </c>
       <c r="H6">
-        <v>18.64804344861745</v>
+        <v>12.34794390140269</v>
       </c>
       <c r="I6">
-        <v>28.94421356073894</v>
+        <v>19.88067469422271</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.31075131074335</v>
+        <v>11.02914953996298</v>
       </c>
       <c r="L6">
-        <v>10.15572907085471</v>
+        <v>6.764407217395685</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.34920090940291</v>
+        <v>14.35948510298914</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.55774507097078</v>
+        <v>13.86878046083645</v>
       </c>
       <c r="C7">
-        <v>5.026976869879751</v>
+        <v>6.597906258322642</v>
       </c>
       <c r="D7">
-        <v>5.839831542587238</v>
+        <v>6.249812117341231</v>
       </c>
       <c r="E7">
-        <v>10.45307463602322</v>
+        <v>6.565948993836838</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>46.24941637746689</v>
+        <v>37.13807750976822</v>
       </c>
       <c r="H7">
-        <v>18.63707683255547</v>
+        <v>12.36558011961077</v>
       </c>
       <c r="I7">
-        <v>28.92752948921245</v>
+        <v>19.91320251781099</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.35211232793686</v>
+        <v>11.3021238362937</v>
       </c>
       <c r="L7">
-        <v>10.15741298234133</v>
+        <v>6.824002065129007</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.33055622116502</v>
+        <v>14.29833909799585</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.82628485143868</v>
+        <v>15.09795427569835</v>
       </c>
       <c r="C8">
-        <v>5.267555163889893</v>
+        <v>7.14745328418005</v>
       </c>
       <c r="D8">
-        <v>5.981902455546345</v>
+        <v>6.878045615253399</v>
       </c>
       <c r="E8">
-        <v>10.44048026874133</v>
+        <v>6.686942188669845</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.35722989982846</v>
+        <v>38.47043452188065</v>
       </c>
       <c r="H8">
-        <v>18.59562501605034</v>
+        <v>12.46114427208041</v>
       </c>
       <c r="I8">
-        <v>28.8656598236049</v>
+        <v>20.08769511350187</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.53981816149846</v>
+        <v>12.44121466844873</v>
       </c>
       <c r="L8">
-        <v>10.169023904906</v>
+        <v>7.089999475548978</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.2524450271058</v>
+        <v>14.03661202273305</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.3678925899235</v>
+        <v>17.40794882817174</v>
       </c>
       <c r="C9">
-        <v>5.700941413780372</v>
+        <v>8.130463496739564</v>
       </c>
       <c r="D9">
-        <v>6.264528317746003</v>
+        <v>8.015409648566035</v>
       </c>
       <c r="E9">
-        <v>10.42853645491163</v>
+        <v>6.946898687790423</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>46.66395947127526</v>
+        <v>41.24692289319177</v>
       </c>
       <c r="H9">
-        <v>18.53934667708307</v>
+        <v>12.7164315734699</v>
       </c>
       <c r="I9">
-        <v>28.78671760684734</v>
+        <v>20.54848523067825</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.92368090084018</v>
+        <v>14.44390486592477</v>
       </c>
       <c r="L9">
-        <v>10.20668980254777</v>
+        <v>7.61858570742401</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.11417424279068</v>
+        <v>13.55223513696972</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.77091535306504</v>
+        <v>19.04910231196132</v>
       </c>
       <c r="C10">
-        <v>5.994356445431662</v>
+        <v>8.795673843734876</v>
       </c>
       <c r="D10">
-        <v>6.472253523150679</v>
+        <v>8.775288937917333</v>
       </c>
       <c r="E10">
-        <v>10.42750995356136</v>
+        <v>7.151215877845621</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>46.94649226726382</v>
+        <v>43.37778843228567</v>
       </c>
       <c r="H10">
-        <v>18.51329253261621</v>
+        <v>12.94907470602917</v>
       </c>
       <c r="I10">
-        <v>28.75466791990288</v>
+        <v>20.96581992598187</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.21268323190867</v>
+        <v>15.77876812553131</v>
       </c>
       <c r="L10">
-        <v>10.24330831033181</v>
+        <v>8.008173820649747</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.0216149422966</v>
+        <v>13.21388145377558</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.95452498709916</v>
+        <v>19.76063669716755</v>
       </c>
       <c r="C11">
-        <v>6.122143092691299</v>
+        <v>9.08623966192072</v>
       </c>
       <c r="D11">
-        <v>6.56629100660181</v>
+        <v>9.105158092374207</v>
       </c>
       <c r="E11">
-        <v>10.42871785559049</v>
+        <v>7.246953094107575</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>47.08717842356408</v>
+        <v>44.36548239201984</v>
       </c>
       <c r="H11">
-        <v>18.50476809295085</v>
+        <v>13.06547972010933</v>
       </c>
       <c r="I11">
-        <v>28.74573980073621</v>
+        <v>21.17412925718396</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.34510951031726</v>
+        <v>16.35741167065861</v>
       </c>
       <c r="L11">
-        <v>10.26187421158815</v>
+        <v>8.185162478198894</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.98145551138942</v>
+        <v>13.0637898574436</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.02402383395482</v>
+        <v>20.02513516878169</v>
       </c>
       <c r="C12">
-        <v>6.169695888264929</v>
+        <v>9.194573822380756</v>
       </c>
       <c r="D12">
-        <v>6.601796925143965</v>
+        <v>9.227852868980509</v>
       </c>
       <c r="E12">
-        <v>10.42941524335505</v>
+        <v>7.283599551781659</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.14217435524659</v>
+        <v>44.74205314318669</v>
       </c>
       <c r="H12">
-        <v>18.50201893980633</v>
+        <v>13.11114358786447</v>
       </c>
       <c r="I12">
-        <v>28.74317242282136</v>
+        <v>21.25577357383225</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.39534689192082</v>
+        <v>16.57250685049717</v>
       </c>
       <c r="L12">
-        <v>10.26917550166567</v>
+        <v>8.252115704573111</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.96652719984706</v>
+        <v>13.00751191794202</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.00905843618747</v>
+        <v>19.96838900087729</v>
       </c>
       <c r="C13">
-        <v>6.159492055438616</v>
+        <v>9.171316955540645</v>
       </c>
       <c r="D13">
-        <v>6.594155305681139</v>
+        <v>9.201526187592785</v>
       </c>
       <c r="E13">
-        <v>10.42925439009757</v>
+        <v>7.275689732409011</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>47.13025391845322</v>
+        <v>44.66083932996967</v>
       </c>
       <c r="H13">
-        <v>18.5025897176261</v>
+        <v>13.10123759801156</v>
       </c>
       <c r="I13">
-        <v>28.74368916309535</v>
+        <v>21.23806544623916</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.38452409607557</v>
+        <v>16.52635980167027</v>
       </c>
       <c r="L13">
-        <v>10.26759105498748</v>
+        <v>8.237699645129107</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.96972987218502</v>
+        <v>13.01960736735586</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.96024369289845</v>
+        <v>19.78249566714704</v>
       </c>
       <c r="C14">
-        <v>6.126072169304442</v>
+        <v>9.095186159424067</v>
       </c>
       <c r="D14">
-        <v>6.569214397099731</v>
+        <v>9.115296432496333</v>
       </c>
       <c r="E14">
-        <v>10.42877042584896</v>
+        <v>7.249960191671724</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>47.09166864581209</v>
+        <v>44.39641229520009</v>
       </c>
       <c r="H14">
-        <v>18.50453231986598</v>
+        <v>13.0692044061038</v>
       </c>
       <c r="I14">
-        <v>28.74551227359011</v>
+        <v>21.18079021013502</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.34924102586973</v>
+        <v>16.37518782014604</v>
       </c>
       <c r="L14">
-        <v>10.2624694876859</v>
+        <v>8.190672304370727</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.9802217585668</v>
+        <v>13.05914858358163</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.93033730541191</v>
+        <v>19.66798968214749</v>
       </c>
       <c r="C15">
-        <v>6.105491969488639</v>
+        <v>9.048334032911534</v>
       </c>
       <c r="D15">
-        <v>6.553922719873776</v>
+        <v>9.062190800587926</v>
       </c>
       <c r="E15">
-        <v>10.42850520895941</v>
+        <v>7.234251031646612</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>47.06825732838525</v>
+        <v>44.23477360528515</v>
       </c>
       <c r="H15">
-        <v>18.50578458990056</v>
+        <v>13.04979130435174</v>
       </c>
       <c r="I15">
-        <v>28.74673494280577</v>
+        <v>21.14607037844497</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.32763951176596</v>
+        <v>16.28206917807734</v>
       </c>
       <c r="L15">
-        <v>10.25936753303334</v>
+        <v>8.161856881347594</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.98668468141041</v>
+        <v>13.08344176198446</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.75891554460304</v>
+        <v>19.00190470884701</v>
       </c>
       <c r="C16">
-        <v>5.98588910814698</v>
+        <v>8.776445177049361</v>
       </c>
       <c r="D16">
-        <v>6.46609543260693</v>
+        <v>8.753417663776034</v>
       </c>
       <c r="E16">
-        <v>10.42746464573697</v>
+        <v>7.145014642552488</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>46.93754051042844</v>
+        <v>43.31360133841446</v>
       </c>
       <c r="H16">
-        <v>18.51391662026736</v>
+        <v>12.94168553370314</v>
       </c>
       <c r="I16">
-        <v>28.75536519454244</v>
+        <v>20.95258708021208</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.20404407549149</v>
+        <v>15.74038436255622</v>
       </c>
       <c r="L16">
-        <v>10.24213307910482</v>
+        <v>7.996599309817129</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.02427856098301</v>
+        <v>13.22376791358134</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.65377371385966</v>
+        <v>18.58437407761509</v>
       </c>
       <c r="C17">
-        <v>5.911044989131022</v>
+        <v>8.606588383667702</v>
       </c>
       <c r="D17">
-        <v>6.412071225940257</v>
+        <v>8.559984388438993</v>
       </c>
       <c r="E17">
-        <v>10.42725468881389</v>
+        <v>7.090979619085481</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>46.86044592781927</v>
+        <v>42.75311907462336</v>
       </c>
       <c r="H17">
-        <v>18.51975796395347</v>
+        <v>12.87811924952008</v>
       </c>
       <c r="I17">
-        <v>28.76210775184713</v>
+        <v>20.83869607886109</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.12843370113272</v>
+        <v>15.40081518583112</v>
       </c>
       <c r="L17">
-        <v>10.23204652380234</v>
+        <v>7.895131564484664</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.04783918449838</v>
+        <v>13.31083829817532</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.59332860384955</v>
+        <v>18.34091776881182</v>
       </c>
       <c r="C18">
-        <v>5.867462087435651</v>
+        <v>8.507755274307325</v>
       </c>
       <c r="D18">
-        <v>6.380957019360077</v>
+        <v>8.447235807786841</v>
       </c>
       <c r="E18">
-        <v>10.42729163179886</v>
+        <v>7.060163385840831</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>46.81724961050958</v>
+        <v>42.43247495876841</v>
       </c>
       <c r="H18">
-        <v>18.52343096072927</v>
+        <v>12.84254912121802</v>
       </c>
       <c r="I18">
-        <v>28.76651780514901</v>
+        <v>20.77492029882679</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.08503754805409</v>
+        <v>15.20280718810158</v>
       </c>
       <c r="L18">
-        <v>10.22642482307264</v>
+        <v>7.836749302646857</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.06157386216386</v>
+        <v>13.36127841360196</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.5728701719804</v>
+        <v>18.25791750384097</v>
       </c>
       <c r="C19">
-        <v>5.852614484149032</v>
+        <v>8.474096039003246</v>
       </c>
       <c r="D19">
-        <v>6.37041645143618</v>
+        <v>8.408803450886696</v>
       </c>
       <c r="E19">
-        <v>10.42733125040353</v>
+        <v>7.049775042847013</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>46.80282177441565</v>
+        <v>42.32421083302687</v>
       </c>
       <c r="H19">
-        <v>18.52472835537506</v>
+        <v>12.83067406843472</v>
       </c>
       <c r="I19">
-        <v>28.76810229873866</v>
+        <v>20.75362100634272</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.07036177001618</v>
+        <v>15.13529934768013</v>
       </c>
       <c r="L19">
-        <v>10.22455240000225</v>
+        <v>7.816979689940094</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.06625567896188</v>
+        <v>13.37841813420146</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.66496367693591</v>
+        <v>18.62916219679094</v>
       </c>
       <c r="C20">
-        <v>5.919067743657164</v>
+        <v>8.624787269976212</v>
       </c>
       <c r="D20">
-        <v>6.417826711894457</v>
+        <v>8.580729616664556</v>
       </c>
       <c r="E20">
-        <v>10.42726072313935</v>
+        <v>7.096704557822832</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>46.86853431488166</v>
+        <v>42.8126050217688</v>
       </c>
       <c r="H20">
-        <v>18.51910372379328</v>
+        <v>12.88478291577509</v>
       </c>
       <c r="I20">
-        <v>28.76133493691631</v>
+        <v>20.85064001061133</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.13647328100633</v>
+        <v>15.43724139962519</v>
       </c>
       <c r="L20">
-        <v>10.23310166919699</v>
+        <v>7.905935395065153</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.0453121572005</v>
+        <v>13.30153225013452</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.9745831265924</v>
+        <v>19.83723043971223</v>
       </c>
       <c r="C21">
-        <v>6.135911261484555</v>
+        <v>9.117593356520635</v>
       </c>
       <c r="D21">
-        <v>6.57654326522302</v>
+        <v>9.140683999949086</v>
       </c>
       <c r="E21">
-        <v>10.42890607227542</v>
+        <v>7.257506981873932</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.10295559831499</v>
+        <v>44.47401214691054</v>
       </c>
       <c r="H21">
-        <v>18.50394873224474</v>
+        <v>13.07856983771125</v>
       </c>
       <c r="I21">
-        <v>28.74495469858835</v>
+        <v>21.19753751356507</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.35960243788269</v>
+        <v>16.41969919933321</v>
       </c>
       <c r="L21">
-        <v>10.26396649704802</v>
+        <v>8.204487471326757</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.97713246526909</v>
+        <v>13.04751912779657</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.17673103038903</v>
+        <v>20.59800406982439</v>
       </c>
       <c r="C22">
-        <v>6.272743942367506</v>
+        <v>9.429801743090408</v>
       </c>
       <c r="D22">
-        <v>6.679650941577943</v>
+        <v>9.493736549932091</v>
       </c>
       <c r="E22">
-        <v>10.43137971979507</v>
+        <v>7.364887577115343</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.26618077994058</v>
+        <v>45.57470458700594</v>
       </c>
       <c r="H22">
-        <v>18.49683531687207</v>
+        <v>13.21448276789784</v>
       </c>
       <c r="I22">
-        <v>28.73899114374142</v>
+        <v>21.44040542811474</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.50593595644707</v>
+        <v>17.0383785105488</v>
       </c>
       <c r="L22">
-        <v>10.28571493095819</v>
+        <v>8.399198514919211</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.93420014850861</v>
+        <v>12.88476899146325</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.06888212735618</v>
+        <v>20.19456404510831</v>
       </c>
       <c r="C23">
-        <v>6.200166576966932</v>
+        <v>9.264059833095777</v>
       </c>
       <c r="D23">
-        <v>6.624689548633773</v>
+        <v>9.306468638518673</v>
       </c>
       <c r="E23">
-        <v>10.42993185514413</v>
+        <v>7.307369760943814</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>47.17815768107537</v>
+        <v>44.98590214074567</v>
       </c>
       <c r="H23">
-        <v>18.50037640985767</v>
+        <v>13.1410748008272</v>
       </c>
       <c r="I23">
-        <v>28.74173993881595</v>
+        <v>21.3092687395997</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.42780414472091</v>
+        <v>16.71028979168387</v>
       </c>
       <c r="L23">
-        <v>10.27396439096417</v>
+        <v>8.295324477840728</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.95696527669654</v>
+        <v>12.97132954403712</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.65990468204203</v>
+        <v>18.60892412392909</v>
       </c>
       <c r="C24">
-        <v>5.915442380583046</v>
+        <v>8.616563232002148</v>
       </c>
       <c r="D24">
-        <v>6.415224825016544</v>
+        <v>8.571355503493509</v>
       </c>
       <c r="E24">
-        <v>10.42725750390296</v>
+        <v>7.094115536069816</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>46.86487404430477</v>
+        <v>42.78570648226776</v>
       </c>
       <c r="H24">
-        <v>18.51939852537264</v>
+        <v>12.88176724019831</v>
       </c>
       <c r="I24">
-        <v>28.76168266419571</v>
+        <v>20.84523486683748</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.13283835512118</v>
+        <v>15.42078179001257</v>
       </c>
       <c r="L24">
-        <v>10.23262408575715</v>
+        <v>7.901051127266211</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.04645403628593</v>
+        <v>13.30573832457507</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.22018648757077</v>
+        <v>16.77193476923217</v>
       </c>
       <c r="C25">
-        <v>5.587986557767452</v>
+        <v>7.87462700781503</v>
       </c>
       <c r="D25">
-        <v>6.187888830422147</v>
+        <v>7.721227173789173</v>
       </c>
       <c r="E25">
-        <v>10.43040450785229</v>
+        <v>6.874195422604118</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>46.57086057952654</v>
+        <v>40.47924935908032</v>
       </c>
       <c r="H25">
-        <v>18.55188862188079</v>
+        <v>12.63971627657053</v>
       </c>
       <c r="I25">
-        <v>28.80352338119646</v>
+        <v>20.41045080213006</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.81841837655858</v>
+        <v>13.92642695206274</v>
       </c>
       <c r="L25">
-        <v>10.19491820424021</v>
+        <v>7.475175462070029</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.14999056211266</v>
+        <v>13.68019722963767</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.41802317195634</v>
+        <v>12.94880310004561</v>
       </c>
       <c r="C2">
-        <v>7.289941969428744</v>
+        <v>9.676981148869713</v>
       </c>
       <c r="D2">
-        <v>7.044170123288477</v>
+        <v>7.054542581020002</v>
       </c>
       <c r="E2">
-        <v>6.721278411288288</v>
+        <v>14.62763460278461</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>38.84287371624004</v>
+        <v>37.83791986623981</v>
       </c>
       <c r="H2">
-        <v>12.49149165013543</v>
+        <v>1.667682509283613</v>
       </c>
       <c r="I2">
-        <v>20.14275294988636</v>
+        <v>2.812611283388592</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.22828112913398</v>
       </c>
       <c r="K2">
-        <v>12.73406131352771</v>
+        <v>18.84846655920159</v>
       </c>
       <c r="L2">
-        <v>7.162666797274032</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.24436037030574</v>
       </c>
       <c r="N2">
-        <v>13.96765800684501</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.09061148622656</v>
+      </c>
+      <c r="P2">
+        <v>14.03091457655837</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.47507585996287</v>
+        <v>12.0830491159601</v>
       </c>
       <c r="C3">
-        <v>6.869499496006393</v>
+        <v>9.014890054876322</v>
       </c>
       <c r="D3">
-        <v>6.552536547392308</v>
+        <v>6.568284124734411</v>
       </c>
       <c r="E3">
-        <v>6.623430411251293</v>
+        <v>13.72048550137709</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>37.77539281135848</v>
+        <v>36.52671722290212</v>
       </c>
       <c r="H3">
-        <v>12.40852720717881</v>
+        <v>1.904327767683996</v>
       </c>
       <c r="I3">
-        <v>19.99189418849851</v>
+        <v>3.009569168711255</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.06247287023782</v>
       </c>
       <c r="K3">
-        <v>11.86709549406641</v>
+        <v>18.58207137625641</v>
       </c>
       <c r="L3">
-        <v>6.9525298273127</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.46100091493023</v>
       </c>
       <c r="N3">
-        <v>14.16983473962195</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.23845724702272</v>
+      </c>
+      <c r="P3">
+        <v>14.12887765155055</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.87214951547385</v>
+        <v>11.51728525449605</v>
       </c>
       <c r="C4">
-        <v>6.599418775537387</v>
+        <v>8.589221044114206</v>
       </c>
       <c r="D4">
-        <v>6.251324519871382</v>
+        <v>6.264461652304893</v>
       </c>
       <c r="E4">
-        <v>6.566256258502634</v>
+        <v>13.13323150114146</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>37.14150869734199</v>
+        <v>35.70650688069858</v>
       </c>
       <c r="H4">
-        <v>12.36579598978761</v>
+        <v>2.054696063067901</v>
       </c>
       <c r="I4">
-        <v>19.91359970765693</v>
+        <v>3.135416067846503</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.96210538945264</v>
       </c>
       <c r="K4">
-        <v>11.30528194142388</v>
+        <v>18.41879466498973</v>
       </c>
       <c r="L4">
-        <v>6.824701244843657</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.95228802108425</v>
       </c>
       <c r="N4">
-        <v>14.29762806175495</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.68951274551475</v>
+      </c>
+      <c r="P4">
+        <v>14.18975640279376</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.62059955688453</v>
+        <v>11.27182249608336</v>
       </c>
       <c r="C5">
-        <v>6.486372328467013</v>
+        <v>8.418358294044918</v>
       </c>
       <c r="D5">
-        <v>6.138472299207036</v>
+        <v>6.152063810317681</v>
       </c>
       <c r="E5">
-        <v>6.543694956894656</v>
+        <v>12.8866047581199</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>36.88878272249178</v>
+        <v>35.34710775882257</v>
       </c>
       <c r="H5">
-        <v>12.35038403701363</v>
+        <v>2.11751997750674</v>
       </c>
       <c r="I5">
-        <v>19.88518537931143</v>
+        <v>3.190890991669212</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.91748561547288</v>
       </c>
       <c r="K5">
-        <v>11.06886051946479</v>
+        <v>18.3431038971089</v>
       </c>
       <c r="L5">
-        <v>6.772972892332814</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.73648309291413</v>
       </c>
       <c r="N5">
-        <v>14.35062849342886</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.45870425168117</v>
+      </c>
+      <c r="P5">
+        <v>14.21215177447257</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.57848233749027</v>
+        <v>11.22288275284976</v>
       </c>
       <c r="C6">
-        <v>6.467421275170896</v>
+        <v>8.398798976284439</v>
       </c>
       <c r="D6">
-        <v>6.119591644903126</v>
+        <v>6.133226016995454</v>
       </c>
       <c r="E6">
-        <v>6.539993401926115</v>
+        <v>12.8455459190424</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>36.84715992916309</v>
+        <v>35.26062592500772</v>
       </c>
       <c r="H6">
-        <v>12.34794390140269</v>
+        <v>2.128337456317348</v>
       </c>
       <c r="I6">
-        <v>19.88067469422271</v>
+        <v>3.203952303767216</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.90508922616223</v>
       </c>
       <c r="K6">
-        <v>11.02914953996298</v>
+        <v>18.31922044788922</v>
       </c>
       <c r="L6">
-        <v>6.764407217395685</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.69837086629447</v>
       </c>
       <c r="N6">
-        <v>14.35948510298914</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.41907740445384</v>
+      </c>
+      <c r="P6">
+        <v>14.21271020834579</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.86878046083645</v>
+        <v>11.49359806879948</v>
       </c>
       <c r="C7">
-        <v>6.597906258322642</v>
+        <v>8.611166494014759</v>
       </c>
       <c r="D7">
-        <v>6.249812117341231</v>
+        <v>6.262889409061915</v>
       </c>
       <c r="E7">
-        <v>6.565948993836838</v>
+        <v>13.13087495657728</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>37.13807750976822</v>
+        <v>35.62985413043654</v>
       </c>
       <c r="H7">
-        <v>12.36558011961077</v>
+        <v>2.056365132908066</v>
       </c>
       <c r="I7">
-        <v>19.91320251781099</v>
+        <v>3.146191593260881</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.94788901672005</v>
       </c>
       <c r="K7">
-        <v>11.3021238362937</v>
+        <v>18.38700102853216</v>
       </c>
       <c r="L7">
-        <v>6.824002065129007</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.94444570733971</v>
       </c>
       <c r="N7">
-        <v>14.29833909799585</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.68396006220865</v>
+      </c>
+      <c r="P7">
+        <v>14.18143653929742</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.09795427569835</v>
+        <v>12.63242929405453</v>
       </c>
       <c r="C8">
-        <v>7.14745328418005</v>
+        <v>9.482060835640489</v>
       </c>
       <c r="D8">
-        <v>6.878045615253399</v>
+        <v>6.890241033845916</v>
       </c>
       <c r="E8">
-        <v>6.686942188669845</v>
+        <v>14.32227420850215</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>38.47043452188065</v>
+        <v>37.29816004234339</v>
       </c>
       <c r="H8">
-        <v>12.46114427208041</v>
+        <v>1.749288895919054</v>
       </c>
       <c r="I8">
-        <v>20.08769511350187</v>
+        <v>2.892541069470823</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.15315879158049</v>
       </c>
       <c r="K8">
-        <v>12.44121466844873</v>
+        <v>18.71662051636284</v>
       </c>
       <c r="L8">
-        <v>7.089999475548978</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.97389938774632</v>
       </c>
       <c r="N8">
-        <v>14.03661202273305</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.79913578043385</v>
+      </c>
+      <c r="P8">
+        <v>14.05331442162453</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.40794882817174</v>
+        <v>14.62914747744486</v>
       </c>
       <c r="C9">
-        <v>8.130463496739564</v>
+        <v>11.00140210083121</v>
       </c>
       <c r="D9">
-        <v>8.015409648566035</v>
+        <v>8.011308848969882</v>
       </c>
       <c r="E9">
-        <v>6.946898687790423</v>
+        <v>16.41734364940548</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>41.24692289319177</v>
+        <v>40.55525527566471</v>
       </c>
       <c r="H9">
-        <v>12.7164315734699</v>
+        <v>1.927183190036621</v>
       </c>
       <c r="I9">
-        <v>20.54848523067825</v>
+        <v>2.538910161454047</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.59018639854634</v>
       </c>
       <c r="K9">
-        <v>14.44390486592477</v>
+        <v>19.41765859416465</v>
       </c>
       <c r="L9">
-        <v>7.61858570742401</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.78149807216868</v>
       </c>
       <c r="N9">
-        <v>13.55223513696972</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.78238167876654</v>
+      </c>
+      <c r="P9">
+        <v>13.82291017373303</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.04910231196132</v>
+        <v>15.91721230825968</v>
       </c>
       <c r="C10">
-        <v>8.795673843734876</v>
+        <v>11.9949862979019</v>
       </c>
       <c r="D10">
-        <v>8.775288937917333</v>
+        <v>8.755164713310396</v>
       </c>
       <c r="E10">
-        <v>7.151215877845621</v>
+        <v>17.27551460658054</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.37778843228567</v>
+        <v>42.50913136035674</v>
       </c>
       <c r="H10">
-        <v>12.94907470602917</v>
+        <v>2.287443518260077</v>
       </c>
       <c r="I10">
-        <v>20.96581992598187</v>
+        <v>2.853358688912373</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.84789437337255</v>
       </c>
       <c r="K10">
-        <v>15.77876812553131</v>
+        <v>19.80737600562976</v>
       </c>
       <c r="L10">
-        <v>8.008173820649747</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.954738186212</v>
       </c>
       <c r="N10">
-        <v>13.21388145377558</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.82243120039762</v>
+      </c>
+      <c r="P10">
+        <v>13.61332001838099</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.76063669716755</v>
+        <v>16.36041040855326</v>
       </c>
       <c r="C11">
-        <v>9.08623966192072</v>
+        <v>12.09276151279765</v>
       </c>
       <c r="D11">
-        <v>9.105158092374207</v>
+        <v>9.069855780238694</v>
       </c>
       <c r="E11">
-        <v>7.246953094107575</v>
+        <v>13.16038955639109</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.36548239201984</v>
+        <v>40.63067679887932</v>
       </c>
       <c r="H11">
-        <v>13.06547972010933</v>
+        <v>3.033687355388988</v>
       </c>
       <c r="I11">
-        <v>21.17412925718396</v>
+        <v>2.941602926209384</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.40329345435407</v>
       </c>
       <c r="K11">
-        <v>16.35741167065861</v>
+        <v>18.99196904912116</v>
       </c>
       <c r="L11">
-        <v>8.185162478198894</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.27786547916855</v>
       </c>
       <c r="N11">
-        <v>13.0637898574436</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.82150320899284</v>
+      </c>
+      <c r="P11">
+        <v>13.18222496368896</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.02513516878169</v>
+        <v>16.49838107655802</v>
       </c>
       <c r="C12">
-        <v>9.194573822380756</v>
+        <v>11.94602038639193</v>
       </c>
       <c r="D12">
-        <v>9.227852868980509</v>
+        <v>9.184155785433285</v>
       </c>
       <c r="E12">
-        <v>7.283599551781659</v>
+        <v>9.742297468483969</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.74205314318669</v>
+        <v>38.70157803691562</v>
       </c>
       <c r="H12">
-        <v>13.11114358786447</v>
+        <v>4.224380897133354</v>
       </c>
       <c r="I12">
-        <v>21.25577357383225</v>
+        <v>2.951754305408605</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.98730897725502</v>
       </c>
       <c r="K12">
-        <v>16.57250685049717</v>
+        <v>18.2607387409175</v>
       </c>
       <c r="L12">
-        <v>8.252115704573111</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.31908798449914</v>
       </c>
       <c r="N12">
-        <v>13.00751191794202</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.91172773802595</v>
+      </c>
+      <c r="P12">
+        <v>12.90037847595676</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.96838900087729</v>
+        <v>16.39112754059837</v>
       </c>
       <c r="C13">
-        <v>9.171316955540645</v>
+        <v>11.6245688051696</v>
       </c>
       <c r="D13">
-        <v>9.201526187592785</v>
+        <v>9.154605616768768</v>
       </c>
       <c r="E13">
-        <v>7.275689732409011</v>
+        <v>6.929228451428497</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.66083932996967</v>
+        <v>36.47555217422544</v>
       </c>
       <c r="H13">
-        <v>13.10123759801156</v>
+        <v>5.514838055529801</v>
       </c>
       <c r="I13">
-        <v>21.23806544623916</v>
+        <v>2.906702127111651</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.54452355450664</v>
       </c>
       <c r="K13">
-        <v>16.52635980167027</v>
+        <v>17.49952075290848</v>
       </c>
       <c r="L13">
-        <v>8.237699645129107</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.14165565542511</v>
       </c>
       <c r="N13">
-        <v>13.01960736735586</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.90494211017022</v>
+      </c>
+      <c r="P13">
+        <v>12.70495497950951</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.78249566714704</v>
+        <v>16.19941755526875</v>
       </c>
       <c r="C14">
-        <v>9.095186159424067</v>
+        <v>11.32190715150443</v>
       </c>
       <c r="D14">
-        <v>9.115296432496333</v>
+        <v>9.068600829305966</v>
       </c>
       <c r="E14">
-        <v>7.249960191671724</v>
+        <v>5.816795695060486</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.39641229520009</v>
+        <v>34.74573320426794</v>
       </c>
       <c r="H14">
-        <v>13.0692044061038</v>
+        <v>6.450982944226298</v>
       </c>
       <c r="I14">
-        <v>21.18079021013502</v>
+        <v>2.851838739228614</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.21873640867027</v>
       </c>
       <c r="K14">
-        <v>16.37518782014604</v>
+        <v>16.94599823100159</v>
       </c>
       <c r="L14">
-        <v>8.190672304370727</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.91549115287857</v>
       </c>
       <c r="N14">
-        <v>13.05914858358163</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.44042853083103</v>
+      </c>
+      <c r="P14">
+        <v>12.61041478287489</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.66798968214749</v>
+        <v>16.09310063133142</v>
       </c>
       <c r="C15">
-        <v>9.048334032911534</v>
+        <v>11.2160953495023</v>
       </c>
       <c r="D15">
-        <v>9.062190800587926</v>
+        <v>9.016530200502949</v>
       </c>
       <c r="E15">
-        <v>7.234251031646612</v>
+        <v>5.720468295255116</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.23477360528515</v>
+        <v>34.23747518691998</v>
       </c>
       <c r="H15">
-        <v>13.04979130435174</v>
+        <v>6.674539140692683</v>
       </c>
       <c r="I15">
-        <v>21.14607037844497</v>
+        <v>2.827469176334759</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.13007327064417</v>
       </c>
       <c r="K15">
-        <v>16.28206917807734</v>
+        <v>16.79577637931371</v>
       </c>
       <c r="L15">
-        <v>8.161856881347594</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.81095621150796</v>
       </c>
       <c r="N15">
-        <v>13.08344176198446</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.05915895573803</v>
+      </c>
+      <c r="P15">
+        <v>12.60089223246247</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.00190470884701</v>
+        <v>15.57231851523439</v>
       </c>
       <c r="C16">
-        <v>8.776445177049361</v>
+        <v>10.8574533124433</v>
       </c>
       <c r="D16">
-        <v>8.753417663776034</v>
+        <v>8.71671306365857</v>
       </c>
       <c r="E16">
-        <v>7.145014642552488</v>
+        <v>5.614346764895321</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.31360133841446</v>
+        <v>33.70477437218333</v>
       </c>
       <c r="H16">
-        <v>12.94168553370314</v>
+        <v>6.462220386739379</v>
       </c>
       <c r="I16">
-        <v>20.95258708021208</v>
+        <v>2.706036169514553</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.09336768191378</v>
       </c>
       <c r="K16">
-        <v>15.74038436255622</v>
+        <v>16.75303214903125</v>
       </c>
       <c r="L16">
-        <v>7.996599309817129</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.35180758237843</v>
       </c>
       <c r="N16">
-        <v>13.22376791358134</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.89116985288015</v>
+      </c>
+      <c r="P16">
+        <v>12.7258356585649</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.58437407761509</v>
+        <v>15.26984835539644</v>
       </c>
       <c r="C17">
-        <v>8.606588383667702</v>
+        <v>10.74755512165886</v>
       </c>
       <c r="D17">
-        <v>8.559984388438993</v>
+        <v>8.529663073311832</v>
       </c>
       <c r="E17">
-        <v>7.090979619085481</v>
+        <v>5.910849759729675</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.75311907462336</v>
+        <v>34.24493939469188</v>
       </c>
       <c r="H17">
-        <v>12.87811924952008</v>
+        <v>5.712134505384456</v>
       </c>
       <c r="I17">
-        <v>20.83869607886109</v>
+        <v>2.641702857246102</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.24023236691935</v>
       </c>
       <c r="K17">
-        <v>15.40081518583112</v>
+        <v>17.01600956369374</v>
       </c>
       <c r="L17">
-        <v>7.895131564484664</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.11791570610933</v>
       </c>
       <c r="N17">
-        <v>13.31083829817532</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.56912025789519</v>
+      </c>
+      <c r="P17">
+        <v>12.86921852246122</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.34091776881182</v>
+        <v>15.14348015802669</v>
       </c>
       <c r="C18">
-        <v>8.507755274307325</v>
+        <v>10.83041154901312</v>
       </c>
       <c r="D18">
-        <v>8.447235807786841</v>
+        <v>8.422489940081206</v>
       </c>
       <c r="E18">
-        <v>7.060163385840831</v>
+        <v>7.673654014574072</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.43247495876841</v>
+        <v>35.81715637320904</v>
       </c>
       <c r="H18">
-        <v>12.84254912121802</v>
+        <v>4.424223146493103</v>
       </c>
       <c r="I18">
-        <v>20.77492029882679</v>
+        <v>2.617984454494708</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.57086618801698</v>
       </c>
       <c r="K18">
-        <v>15.20280718810158</v>
+        <v>17.59627197796388</v>
       </c>
       <c r="L18">
-        <v>7.836749302646857</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.06253674001361</v>
       </c>
       <c r="N18">
-        <v>13.36127841360196</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.07687528264585</v>
+      </c>
+      <c r="P18">
+        <v>13.0641474327287</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.25791750384097</v>
+        <v>15.14124101071848</v>
       </c>
       <c r="C19">
-        <v>8.474096039003246</v>
+        <v>11.09871417801426</v>
       </c>
       <c r="D19">
-        <v>8.408803450886696</v>
+        <v>8.389008041517533</v>
       </c>
       <c r="E19">
-        <v>7.049775042847013</v>
+        <v>11.04908051272318</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.32421083302687</v>
+        <v>37.96940970017189</v>
       </c>
       <c r="H19">
-        <v>12.83067406843472</v>
+        <v>3.064193011678058</v>
       </c>
       <c r="I19">
-        <v>20.75362100634272</v>
+        <v>2.641845755414313</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.00285872840567</v>
       </c>
       <c r="K19">
-        <v>15.13529934768013</v>
+        <v>18.34390949028543</v>
       </c>
       <c r="L19">
-        <v>7.816979689940094</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.15012706389349</v>
       </c>
       <c r="N19">
-        <v>13.37841813420146</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.13533342631981</v>
+      </c>
+      <c r="P19">
+        <v>13.297738339049</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.62916219679094</v>
+        <v>15.54003303391894</v>
       </c>
       <c r="C20">
-        <v>8.624787269976212</v>
+        <v>11.79474564162732</v>
       </c>
       <c r="D20">
-        <v>8.580729616664556</v>
+        <v>8.564690566879642</v>
       </c>
       <c r="E20">
-        <v>7.096704557822832</v>
+        <v>17.03238383391575</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.8126050217688</v>
+        <v>41.79677311330583</v>
       </c>
       <c r="H20">
-        <v>12.88478291577509</v>
+        <v>2.189639929132109</v>
       </c>
       <c r="I20">
-        <v>20.85064001061133</v>
+        <v>2.781298886449811</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.7377169852908</v>
       </c>
       <c r="K20">
-        <v>15.43724139962519</v>
+        <v>19.6112376921589</v>
       </c>
       <c r="L20">
-        <v>7.905935395065153</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.64213755676717</v>
       </c>
       <c r="N20">
-        <v>13.30153225013452</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.53654869363398</v>
+      </c>
+      <c r="P20">
+        <v>13.64098311389335</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.83723043971223</v>
+        <v>16.50740793851444</v>
       </c>
       <c r="C21">
-        <v>9.117593356520635</v>
+        <v>12.58089101694388</v>
       </c>
       <c r="D21">
-        <v>9.140683999949086</v>
+        <v>9.112413420293136</v>
       </c>
       <c r="E21">
-        <v>7.257506981873932</v>
+        <v>18.48180262141431</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.47401214691054</v>
+        <v>43.78785719439962</v>
       </c>
       <c r="H21">
-        <v>13.07856983771125</v>
+        <v>2.496040595858374</v>
       </c>
       <c r="I21">
-        <v>21.19753751356507</v>
+        <v>3.026639030321977</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.04369498520491</v>
       </c>
       <c r="K21">
-        <v>16.41969919933321</v>
+        <v>20.10098350160455</v>
       </c>
       <c r="L21">
-        <v>8.204487471326757</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.53701039269649</v>
       </c>
       <c r="N21">
-        <v>13.04751912779657</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.74093334269767</v>
+      </c>
+      <c r="P21">
+        <v>13.54827082459028</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.59800406982439</v>
+        <v>17.12458969058827</v>
       </c>
       <c r="C22">
-        <v>9.429801743090408</v>
+        <v>13.03587143439874</v>
       </c>
       <c r="D22">
-        <v>9.493736549932091</v>
+        <v>9.45639767764405</v>
       </c>
       <c r="E22">
-        <v>7.364887577115343</v>
+        <v>19.12459312466525</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.57470458700594</v>
+        <v>44.98256247015512</v>
       </c>
       <c r="H22">
-        <v>13.21448276789784</v>
+        <v>2.681395795350811</v>
       </c>
       <c r="I22">
-        <v>21.44040542811474</v>
+        <v>3.178061327570694</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.22807241303363</v>
       </c>
       <c r="K22">
-        <v>17.0383785105488</v>
+        <v>20.39976227105107</v>
       </c>
       <c r="L22">
-        <v>8.399198514919211</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.09238422017179</v>
       </c>
       <c r="N22">
-        <v>12.88476899146325</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.35843270715904</v>
+      </c>
+      <c r="P22">
+        <v>13.47876474350187</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.19456404510831</v>
+        <v>16.81521529467301</v>
       </c>
       <c r="C23">
-        <v>9.264059833095777</v>
+        <v>12.77427427061696</v>
       </c>
       <c r="D23">
-        <v>9.306468638518673</v>
+        <v>9.27419276788129</v>
       </c>
       <c r="E23">
-        <v>7.307369760943814</v>
+        <v>18.7831137512616</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.98590214074567</v>
+        <v>44.41600103901928</v>
       </c>
       <c r="H23">
-        <v>13.1410748008272</v>
+        <v>2.583590188820481</v>
       </c>
       <c r="I23">
-        <v>21.3092687395997</v>
+        <v>3.093944006599971</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.1440989235576</v>
       </c>
       <c r="K23">
-        <v>16.71028979168387</v>
+        <v>20.27320510518103</v>
       </c>
       <c r="L23">
-        <v>8.295324477840728</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.8024672261804</v>
       </c>
       <c r="N23">
-        <v>12.97132954403712</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.03326837488432</v>
+      </c>
+      <c r="P23">
+        <v>13.52543878235102</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.60892412392909</v>
+        <v>15.56031626293643</v>
       </c>
       <c r="C24">
-        <v>8.616563232002148</v>
+        <v>11.78303370843188</v>
       </c>
       <c r="D24">
-        <v>8.571355503493509</v>
+        <v>8.556340327009565</v>
       </c>
       <c r="E24">
-        <v>7.094115536069816</v>
+        <v>17.43920362367112</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.78570648226776</v>
+        <v>42.12154640745231</v>
       </c>
       <c r="H24">
-        <v>12.88176724019831</v>
+        <v>2.204963647541035</v>
       </c>
       <c r="I24">
-        <v>20.84523486683748</v>
+        <v>2.776167169275083</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.8055513254166</v>
       </c>
       <c r="K24">
-        <v>15.42078179001257</v>
+        <v>19.74241620339449</v>
       </c>
       <c r="L24">
-        <v>7.901051127266211</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.6509724175708</v>
       </c>
       <c r="N24">
-        <v>13.30573832457507</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.75032835204265</v>
+      </c>
+      <c r="P24">
+        <v>13.6886753109182</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.77193476923217</v>
+        <v>14.08672020909285</v>
       </c>
       <c r="C25">
-        <v>7.87462700781503</v>
+        <v>10.64220147621645</v>
       </c>
       <c r="D25">
-        <v>7.721227173789173</v>
+        <v>7.721846302135559</v>
       </c>
       <c r="E25">
-        <v>6.874195422604118</v>
+        <v>15.87754312170747</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>40.47924935908032</v>
+        <v>39.57378190647716</v>
       </c>
       <c r="H25">
-        <v>12.63971627657053</v>
+        <v>1.780793761283231</v>
       </c>
       <c r="I25">
-        <v>20.41045080213006</v>
+        <v>2.561031106255888</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.44747546682525</v>
       </c>
       <c r="K25">
-        <v>13.92642695206274</v>
+        <v>19.17509484157836</v>
       </c>
       <c r="L25">
-        <v>7.475175462070029</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.30820415376651</v>
       </c>
       <c r="N25">
-        <v>13.68019722963767</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>16.26466923004144</v>
+      </c>
+      <c r="P25">
+        <v>13.86958060955477</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.94880310004561</v>
+        <v>12.41222305980244</v>
       </c>
       <c r="C2">
-        <v>9.676981148869713</v>
+        <v>10.30941698215429</v>
       </c>
       <c r="D2">
-        <v>7.054542581020002</v>
+        <v>7.059220013141572</v>
       </c>
       <c r="E2">
-        <v>14.62763460278461</v>
+        <v>14.74471918227664</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>37.83791986623981</v>
+        <v>34.86269812814623</v>
       </c>
       <c r="H2">
-        <v>1.667682509283613</v>
+        <v>1.632136478576083</v>
       </c>
       <c r="I2">
-        <v>2.812611283388592</v>
+        <v>2.704023651102413</v>
       </c>
       <c r="J2">
-        <v>12.22828112913398</v>
+        <v>11.96101373630328</v>
       </c>
       <c r="K2">
-        <v>18.84846655920159</v>
+        <v>17.54438932896687</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.5547970582568</v>
       </c>
       <c r="M2">
-        <v>12.24436037030574</v>
+        <v>11.52977373763918</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.09061148622656</v>
+        <v>12.13038356658196</v>
       </c>
       <c r="P2">
-        <v>14.03091457655837</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.04047682125428</v>
+      </c>
+      <c r="R2">
+        <v>13.62455095465621</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.0830491159601</v>
+        <v>11.63025673185572</v>
       </c>
       <c r="C3">
-        <v>9.014890054876322</v>
+        <v>9.561589925918611</v>
       </c>
       <c r="D3">
-        <v>6.568284124734411</v>
+        <v>6.574192570987981</v>
       </c>
       <c r="E3">
-        <v>13.72048550137709</v>
+        <v>13.85012958267622</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>36.52671722290212</v>
+        <v>33.83894929677773</v>
       </c>
       <c r="H3">
-        <v>1.904327767683996</v>
+        <v>1.856185412103369</v>
       </c>
       <c r="I3">
-        <v>3.009569168711255</v>
+        <v>2.873630099809416</v>
       </c>
       <c r="J3">
-        <v>12.06247287023782</v>
+        <v>11.80412243691272</v>
       </c>
       <c r="K3">
-        <v>18.58207137625641</v>
+        <v>17.38698087284614</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.56822158301707</v>
       </c>
       <c r="M3">
-        <v>11.46100091493023</v>
+        <v>11.27806631940473</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.23845724702272</v>
+        <v>11.37388709111062</v>
       </c>
       <c r="P3">
-        <v>14.12887765155055</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.20082293593039</v>
+      </c>
+      <c r="R3">
+        <v>13.7457936330198</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.51728525449605</v>
+        <v>11.11911424865967</v>
       </c>
       <c r="C4">
-        <v>8.589221044114206</v>
+        <v>9.079719136156379</v>
       </c>
       <c r="D4">
-        <v>6.264461652304893</v>
+        <v>6.269104208110984</v>
       </c>
       <c r="E4">
-        <v>13.13323150114146</v>
+        <v>13.27125754974427</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>35.70650688069858</v>
+        <v>33.20291241043417</v>
       </c>
       <c r="H4">
-        <v>2.054696063067901</v>
+        <v>1.998660088718827</v>
       </c>
       <c r="I4">
-        <v>3.135416067846503</v>
+        <v>2.982442658986705</v>
       </c>
       <c r="J4">
-        <v>11.96210538945264</v>
+        <v>11.70659777820252</v>
       </c>
       <c r="K4">
-        <v>18.41879466498973</v>
+        <v>17.29008711599964</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.57260677756639</v>
       </c>
       <c r="M4">
-        <v>10.95228802108425</v>
+        <v>11.14000954374793</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.68951274551475</v>
+        <v>10.88255506887147</v>
       </c>
       <c r="P4">
-        <v>14.18975640279376</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.65986841874455</v>
+      </c>
+      <c r="R4">
+        <v>13.8207692592562</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.27182249608336</v>
+        <v>10.89707317734381</v>
       </c>
       <c r="C5">
-        <v>8.418358294044918</v>
+        <v>8.884995633853602</v>
       </c>
       <c r="D5">
-        <v>6.152063810317681</v>
+        <v>6.15678211244489</v>
       </c>
       <c r="E5">
-        <v>12.8866047581199</v>
+        <v>13.02823545800916</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>35.34710775882257</v>
+        <v>32.9214696125395</v>
       </c>
       <c r="H5">
-        <v>2.11751997750674</v>
+        <v>2.058201633263842</v>
       </c>
       <c r="I5">
-        <v>3.190890991669212</v>
+        <v>3.031382657370967</v>
       </c>
       <c r="J5">
-        <v>11.91748561547288</v>
+        <v>11.66267479697747</v>
       </c>
       <c r="K5">
-        <v>18.3431038971089</v>
+        <v>17.24202783405909</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.56619485227686</v>
       </c>
       <c r="M5">
-        <v>10.73648309291413</v>
+        <v>11.0824248217897</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.45870425168117</v>
+        <v>10.674149192938</v>
       </c>
       <c r="P5">
-        <v>14.21215177447257</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.43243538690927</v>
+      </c>
+      <c r="R5">
+        <v>13.8492734980486</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.22288275284976</v>
+        <v>10.85249418334913</v>
       </c>
       <c r="C6">
-        <v>8.398798976284439</v>
+        <v>8.861344060031863</v>
       </c>
       <c r="D6">
-        <v>6.133226016995454</v>
+        <v>6.137956533754236</v>
       </c>
       <c r="E6">
-        <v>12.8455459190424</v>
+        <v>12.98778530585902</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>35.26062592500772</v>
+        <v>32.84942485405948</v>
       </c>
       <c r="H6">
-        <v>2.128337456317348</v>
+        <v>2.068443620580419</v>
       </c>
       <c r="I6">
-        <v>3.203952303767216</v>
+        <v>3.043979713368185</v>
       </c>
       <c r="J6">
-        <v>11.90508922616223</v>
+        <v>11.65059423735401</v>
       </c>
       <c r="K6">
-        <v>18.31922044788922</v>
+        <v>17.22363904080084</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.55625619147055</v>
       </c>
       <c r="M6">
-        <v>10.69837086629447</v>
+        <v>11.06618363629929</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.41907740445384</v>
+        <v>10.63737964355945</v>
       </c>
       <c r="P6">
-        <v>14.21271020834579</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.39341769276609</v>
+      </c>
+      <c r="R6">
+        <v>13.85134288481115</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.49359806879948</v>
+        <v>11.09208328240787</v>
       </c>
       <c r="C7">
-        <v>8.611166494014759</v>
+        <v>9.087830508836241</v>
       </c>
       <c r="D7">
-        <v>6.262889409061915</v>
+        <v>6.267495156350231</v>
       </c>
       <c r="E7">
-        <v>13.13087495657728</v>
+        <v>13.27136261881739</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>35.62985413043654</v>
+        <v>33.20260107990403</v>
       </c>
       <c r="H7">
-        <v>2.056365132908066</v>
+        <v>2.000732622522274</v>
       </c>
       <c r="I7">
-        <v>3.146191593260881</v>
+        <v>2.995519668272904</v>
       </c>
       <c r="J7">
-        <v>11.94788901672005</v>
+        <v>11.64133633669416</v>
       </c>
       <c r="K7">
-        <v>18.38700102853216</v>
+        <v>17.24833931168768</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.53821680768763</v>
       </c>
       <c r="M7">
-        <v>10.94444570733971</v>
+        <v>11.11111883436991</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.68396006220865</v>
+        <v>10.86787874877112</v>
       </c>
       <c r="P7">
-        <v>14.18143653929742</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.65111103716041</v>
+      </c>
+      <c r="R7">
+        <v>13.8101568177641</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.63242929405453</v>
+        <v>12.11078280142922</v>
       </c>
       <c r="C8">
-        <v>9.482060835640489</v>
+        <v>10.04484727050616</v>
       </c>
       <c r="D8">
-        <v>6.890241033845916</v>
+        <v>6.895169008785819</v>
       </c>
       <c r="E8">
-        <v>14.32227420850215</v>
+        <v>14.45109729992605</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>37.29816004234339</v>
+        <v>34.6552648679567</v>
       </c>
       <c r="H8">
-        <v>1.749288895919054</v>
+        <v>1.71095809827332</v>
       </c>
       <c r="I8">
-        <v>2.892541069470823</v>
+        <v>2.779008987377734</v>
       </c>
       <c r="J8">
-        <v>12.15315879158049</v>
+        <v>11.72261269222697</v>
       </c>
       <c r="K8">
-        <v>18.71662051636284</v>
+        <v>17.41186646790703</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.49790071947512</v>
       </c>
       <c r="M8">
-        <v>11.97389938774632</v>
+        <v>11.38249154854443</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.79913578043385</v>
+        <v>11.84718127822524</v>
       </c>
       <c r="P8">
-        <v>14.05331442162453</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.74296851477899</v>
+      </c>
+      <c r="R8">
+        <v>13.64490311950413</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.62914747744486</v>
+        <v>13.91210416684044</v>
       </c>
       <c r="C9">
-        <v>11.00140210083121</v>
+        <v>11.75402299049163</v>
       </c>
       <c r="D9">
-        <v>8.011308848969882</v>
+        <v>8.01232821341442</v>
       </c>
       <c r="E9">
-        <v>16.41734364940548</v>
+        <v>16.51878836539156</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.55525527566471</v>
+        <v>37.28435477050872</v>
       </c>
       <c r="H9">
-        <v>1.927183190036621</v>
+        <v>1.934290962917785</v>
       </c>
       <c r="I9">
-        <v>2.538910161454047</v>
+        <v>2.593221332135492</v>
       </c>
       <c r="J9">
-        <v>12.59018639854634</v>
+        <v>12.08197805130705</v>
       </c>
       <c r="K9">
-        <v>19.41765859416465</v>
+        <v>17.82686613284956</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.46615751770154</v>
       </c>
       <c r="M9">
-        <v>13.78149807216868</v>
+        <v>12.10544720993964</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.78238167876654</v>
+        <v>13.58897060839922</v>
       </c>
       <c r="P9">
-        <v>13.82291017373303</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.6949382137303</v>
+      </c>
+      <c r="R9">
+        <v>13.35065069078442</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.91721230825968</v>
+        <v>15.05780414213273</v>
       </c>
       <c r="C10">
-        <v>11.9949862979019</v>
+        <v>12.80256407740086</v>
       </c>
       <c r="D10">
-        <v>8.755164713310396</v>
+        <v>8.75223533874388</v>
       </c>
       <c r="E10">
-        <v>17.27551460658054</v>
+        <v>17.3689207896507</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.50913136035674</v>
+        <v>39.2208426957216</v>
       </c>
       <c r="H10">
-        <v>2.287443518260077</v>
+        <v>2.271111585174893</v>
       </c>
       <c r="I10">
-        <v>2.853358688912373</v>
+        <v>2.86184521682683</v>
       </c>
       <c r="J10">
-        <v>12.84789437337255</v>
+        <v>12.00417657635686</v>
       </c>
       <c r="K10">
-        <v>19.80737600562976</v>
+        <v>17.95862672637448</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.30090141929259</v>
       </c>
       <c r="M10">
-        <v>14.954738186212</v>
+        <v>12.55865953579216</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.82243120039762</v>
+        <v>14.68745516308445</v>
       </c>
       <c r="P10">
-        <v>13.61332001838099</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.69908394743002</v>
+      </c>
+      <c r="R10">
+        <v>13.0850471755435</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.36041040855326</v>
+        <v>15.47311095804988</v>
       </c>
       <c r="C11">
-        <v>12.09276151279765</v>
+        <v>12.74271090483478</v>
       </c>
       <c r="D11">
-        <v>9.069855780238694</v>
+        <v>9.065169599482999</v>
       </c>
       <c r="E11">
-        <v>13.16038955639109</v>
+        <v>13.25483736775931</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>40.63067679887932</v>
+        <v>38.24595328677373</v>
       </c>
       <c r="H11">
-        <v>3.033687355388988</v>
+        <v>3.015340075205361</v>
       </c>
       <c r="I11">
-        <v>2.941602926209384</v>
+        <v>2.935746369421679</v>
       </c>
       <c r="J11">
-        <v>12.40329345435407</v>
+        <v>11.05403465275441</v>
       </c>
       <c r="K11">
-        <v>18.99196904912116</v>
+        <v>17.08594208488466</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.56576089130095</v>
       </c>
       <c r="M11">
-        <v>15.27786547916855</v>
+        <v>12.01473381368525</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.82150320899284</v>
+        <v>14.94253778048723</v>
       </c>
       <c r="P11">
-        <v>13.18222496368896</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.66799192051159</v>
+      </c>
+      <c r="R11">
+        <v>12.70684513753463</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.49838107655802</v>
+        <v>15.62833605389713</v>
       </c>
       <c r="C12">
-        <v>11.94602038639193</v>
+        <v>12.48658290589013</v>
       </c>
       <c r="D12">
-        <v>9.184155785433285</v>
+        <v>9.179067243869941</v>
       </c>
       <c r="E12">
-        <v>9.742297468483969</v>
+        <v>9.816262151815057</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>38.70157803691562</v>
+        <v>36.85344783511052</v>
       </c>
       <c r="H12">
-        <v>4.224380897133354</v>
+        <v>4.210955473729485</v>
       </c>
       <c r="I12">
-        <v>2.951754305408605</v>
+        <v>2.942663518086934</v>
       </c>
       <c r="J12">
-        <v>11.98730897725502</v>
+        <v>10.47473408020136</v>
       </c>
       <c r="K12">
-        <v>18.2607387409175</v>
+        <v>16.40541831028916</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.05283259030115</v>
       </c>
       <c r="M12">
-        <v>15.31908798449914</v>
+        <v>11.51463412612372</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.91172773802595</v>
+        <v>14.96061860136217</v>
       </c>
       <c r="P12">
-        <v>12.90037847595676</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.75000800399417</v>
+      </c>
+      <c r="R12">
+        <v>12.49644270638223</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.39112754059837</v>
+        <v>15.58519817234621</v>
       </c>
       <c r="C13">
-        <v>11.6245688051696</v>
+        <v>12.10615435587289</v>
       </c>
       <c r="D13">
-        <v>9.154605616768768</v>
+        <v>9.150347634868153</v>
       </c>
       <c r="E13">
-        <v>6.929228451428497</v>
+        <v>6.951622548776982</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>36.47555217422544</v>
+        <v>34.76530179046918</v>
       </c>
       <c r="H13">
-        <v>5.514838055529801</v>
+        <v>5.506783223496714</v>
       </c>
       <c r="I13">
-        <v>2.906702127111651</v>
+        <v>2.905626278695224</v>
       </c>
       <c r="J13">
-        <v>11.54452355450664</v>
+        <v>10.19858819617366</v>
       </c>
       <c r="K13">
-        <v>17.49952075290848</v>
+        <v>15.81120437859623</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.65397572155317</v>
       </c>
       <c r="M13">
-        <v>15.14165565542511</v>
+        <v>11.00603591516148</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.90494211017022</v>
+        <v>14.80680810836349</v>
       </c>
       <c r="P13">
-        <v>12.70495497950951</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.75769328335288</v>
+      </c>
+      <c r="R13">
+        <v>12.38836404403619</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.19941755526875</v>
+        <v>15.46031970313226</v>
       </c>
       <c r="C14">
-        <v>11.32190715150443</v>
+        <v>11.78262406123669</v>
       </c>
       <c r="D14">
-        <v>9.068600829305966</v>
+        <v>9.065450802922303</v>
       </c>
       <c r="E14">
-        <v>5.816795695060486</v>
+        <v>5.786800811305332</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>34.74573320426794</v>
+        <v>32.96303650183138</v>
       </c>
       <c r="H14">
-        <v>6.450982944226298</v>
+        <v>6.446156505590997</v>
       </c>
       <c r="I14">
-        <v>2.851838739228614</v>
+        <v>2.861674605881514</v>
       </c>
       <c r="J14">
-        <v>11.21873640867027</v>
+        <v>10.12067486516182</v>
       </c>
       <c r="K14">
-        <v>16.94599823100159</v>
+        <v>15.42414418331942</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.41534625117432</v>
       </c>
       <c r="M14">
-        <v>14.91549115287857</v>
+        <v>10.64009941523573</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.44042853083103</v>
+        <v>14.61810644981535</v>
       </c>
       <c r="P14">
-        <v>12.61041478287489</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.31348691399671</v>
+      </c>
+      <c r="R14">
+        <v>12.35606010717748</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.09310063133142</v>
+        <v>15.3802280317157</v>
       </c>
       <c r="C15">
-        <v>11.2160953495023</v>
+        <v>11.68033517396671</v>
       </c>
       <c r="D15">
-        <v>9.016530200502949</v>
+        <v>9.013901742654161</v>
       </c>
       <c r="E15">
-        <v>5.720468295255116</v>
+        <v>5.68179691357748</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>34.23747518691998</v>
+        <v>32.36737275714152</v>
       </c>
       <c r="H15">
-        <v>6.674539140692683</v>
+        <v>6.67716587820559</v>
       </c>
       <c r="I15">
-        <v>2.827469176334759</v>
+        <v>2.842932430599049</v>
       </c>
       <c r="J15">
-        <v>11.13007327064417</v>
+        <v>10.14779870633072</v>
       </c>
       <c r="K15">
-        <v>16.79577637931371</v>
+        <v>15.33601041703521</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.36971520234442</v>
       </c>
       <c r="M15">
-        <v>14.81095621150796</v>
+        <v>10.54167965933894</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.05915895573803</v>
+        <v>14.53191753008563</v>
       </c>
       <c r="P15">
-        <v>12.60089223246247</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.941402825398349</v>
+      </c>
+      <c r="R15">
+        <v>12.36278886301492</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.57231851523439</v>
+        <v>14.94337783544035</v>
       </c>
       <c r="C16">
-        <v>10.8574533124433</v>
+        <v>11.39213030143461</v>
       </c>
       <c r="D16">
-        <v>8.71671306365857</v>
+        <v>8.71632842295592</v>
       </c>
       <c r="E16">
-        <v>5.614346764895321</v>
+        <v>5.614650857272229</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>33.70477437218333</v>
+        <v>31.26805601519763</v>
       </c>
       <c r="H16">
-        <v>6.462220386739379</v>
+        <v>6.462490499260593</v>
       </c>
       <c r="I16">
-        <v>2.706036169514553</v>
+        <v>2.744829813268832</v>
       </c>
       <c r="J16">
-        <v>11.09336768191378</v>
+        <v>10.5768736693598</v>
       </c>
       <c r="K16">
-        <v>16.75303214903125</v>
+        <v>15.46649725139622</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.53921968123579</v>
       </c>
       <c r="M16">
-        <v>14.35180758237843</v>
+        <v>10.51734309394476</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.89116985288015</v>
+        <v>14.15031929905395</v>
       </c>
       <c r="P16">
-        <v>12.7258356585649</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.808065425701303</v>
+      </c>
+      <c r="R16">
+        <v>12.49698163489769</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.26984835539644</v>
+        <v>14.66329606449035</v>
       </c>
       <c r="C17">
-        <v>10.74755512165886</v>
+        <v>11.33425103546607</v>
       </c>
       <c r="D17">
-        <v>8.529663073311832</v>
+        <v>8.530281027089316</v>
       </c>
       <c r="E17">
-        <v>5.910849759729675</v>
+        <v>5.952437676844571</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>34.24493939469188</v>
+        <v>31.50569163227261</v>
       </c>
       <c r="H17">
-        <v>5.712134505384456</v>
+        <v>5.710937375574571</v>
       </c>
       <c r="I17">
-        <v>2.641702857246102</v>
+        <v>2.691994534369366</v>
       </c>
       <c r="J17">
-        <v>11.24023236691935</v>
+        <v>10.90323141033006</v>
       </c>
       <c r="K17">
-        <v>17.01600956369374</v>
+        <v>15.76020056583667</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.79488300317684</v>
       </c>
       <c r="M17">
-        <v>14.11791570610933</v>
+        <v>10.68048384354185</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.56912025789519</v>
+        <v>13.94729762884509</v>
       </c>
       <c r="P17">
-        <v>12.86921852246122</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.49826543622774</v>
+      </c>
+      <c r="R17">
+        <v>12.61955251882603</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.14348015802669</v>
+        <v>14.51496802696474</v>
       </c>
       <c r="C18">
-        <v>10.83041154901312</v>
+        <v>11.48010671757938</v>
       </c>
       <c r="D18">
-        <v>8.422489940081206</v>
+        <v>8.423332730317727</v>
       </c>
       <c r="E18">
-        <v>7.673654014574072</v>
+        <v>7.744370905336519</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>35.81715637320904</v>
+        <v>32.82139685268717</v>
       </c>
       <c r="H18">
-        <v>4.424223146493103</v>
+        <v>4.422503856527346</v>
       </c>
       <c r="I18">
-        <v>2.617984454494708</v>
+        <v>2.67022246460305</v>
       </c>
       <c r="J18">
-        <v>11.57086618801698</v>
+        <v>11.27429877383334</v>
       </c>
       <c r="K18">
-        <v>17.59627197796388</v>
+        <v>16.27548311534246</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.19288236712239</v>
       </c>
       <c r="M18">
-        <v>14.06253674001361</v>
+        <v>11.05421130822489</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.07687528264585</v>
+        <v>13.89708100597641</v>
       </c>
       <c r="P18">
-        <v>13.0641474327287</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.00612304618177</v>
+      </c>
+      <c r="R18">
+        <v>12.76599587659342</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.14124101071848</v>
+        <v>14.46188045570881</v>
       </c>
       <c r="C19">
-        <v>11.09871417801426</v>
+        <v>11.82292009231674</v>
       </c>
       <c r="D19">
-        <v>8.389008041517533</v>
+        <v>8.389494157491981</v>
       </c>
       <c r="E19">
-        <v>11.04908051272318</v>
+        <v>11.13049372495306</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>37.96940970017189</v>
+        <v>34.72120034820171</v>
       </c>
       <c r="H19">
-        <v>3.064193011678058</v>
+        <v>3.066385235172707</v>
       </c>
       <c r="I19">
-        <v>2.641845755414313</v>
+        <v>2.690809647866343</v>
       </c>
       <c r="J19">
-        <v>12.00285872840567</v>
+        <v>11.67139860944613</v>
       </c>
       <c r="K19">
-        <v>18.34390949028543</v>
+        <v>16.90071123620663</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.6560875831019</v>
       </c>
       <c r="M19">
-        <v>14.15012706389349</v>
+        <v>11.54139013894507</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.13533342631981</v>
+        <v>13.97411584995551</v>
       </c>
       <c r="P19">
-        <v>13.297738339049</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.05768315031931</v>
+      </c>
+      <c r="R19">
+        <v>12.93262881196648</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.54003303391894</v>
+        <v>14.73314037267441</v>
       </c>
       <c r="C20">
-        <v>11.79474564162732</v>
+        <v>12.62318152895359</v>
       </c>
       <c r="D20">
-        <v>8.564690566879642</v>
+        <v>8.563151923190123</v>
       </c>
       <c r="E20">
-        <v>17.03238383391575</v>
+        <v>17.12122287529932</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.79677311330583</v>
+        <v>38.29543468234974</v>
       </c>
       <c r="H20">
-        <v>2.189639929132109</v>
+        <v>2.181152990414822</v>
       </c>
       <c r="I20">
-        <v>2.781298886449811</v>
+        <v>2.807760867180689</v>
       </c>
       <c r="J20">
-        <v>12.7377169852908</v>
+        <v>12.15636127987829</v>
       </c>
       <c r="K20">
-        <v>19.6112376921589</v>
+        <v>17.88139770494284</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.31370797150498</v>
       </c>
       <c r="M20">
-        <v>14.64213755676717</v>
+        <v>12.40283227661594</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.53654869363398</v>
+        <v>14.41489731654868</v>
       </c>
       <c r="P20">
-        <v>13.64098311389335</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.43241343876914</v>
+      </c>
+      <c r="R20">
+        <v>13.1454987929829</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.50740793851444</v>
+        <v>15.51576963351331</v>
       </c>
       <c r="C21">
-        <v>12.58089101694388</v>
+        <v>13.28157738318365</v>
       </c>
       <c r="D21">
-        <v>9.112413420293136</v>
+        <v>9.106086143022834</v>
       </c>
       <c r="E21">
-        <v>18.48180262141431</v>
+        <v>18.60153892855011</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>43.78785719439962</v>
+        <v>41.40787821255396</v>
       </c>
       <c r="H21">
-        <v>2.496040595858374</v>
+        <v>2.461264040418838</v>
       </c>
       <c r="I21">
-        <v>3.026639030321977</v>
+        <v>3.005795297216444</v>
       </c>
       <c r="J21">
-        <v>13.04369498520491</v>
+        <v>11.32186154949371</v>
       </c>
       <c r="K21">
-        <v>20.10098350160455</v>
+        <v>17.92006274956806</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.14342862836063</v>
       </c>
       <c r="M21">
-        <v>15.53701039269649</v>
+        <v>12.71153122843457</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.74093334269767</v>
+        <v>15.14875370401831</v>
       </c>
       <c r="P21">
-        <v>13.54827082459028</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.55899812750126</v>
+      </c>
+      <c r="R21">
+        <v>12.92777450012282</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.12458969058827</v>
+        <v>16.0156365042491</v>
       </c>
       <c r="C22">
-        <v>13.03587143439874</v>
+        <v>13.64112932628449</v>
       </c>
       <c r="D22">
-        <v>9.45639767764405</v>
+        <v>9.446701447227793</v>
       </c>
       <c r="E22">
-        <v>19.12459312466525</v>
+        <v>19.26632854427886</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>44.98256247015512</v>
+        <v>43.42931652874572</v>
       </c>
       <c r="H22">
-        <v>2.681395795350811</v>
+        <v>2.629761530194052</v>
       </c>
       <c r="I22">
-        <v>3.178061327570694</v>
+        <v>3.1255545295278</v>
       </c>
       <c r="J22">
-        <v>13.22807241303363</v>
+        <v>10.7316592494141</v>
       </c>
       <c r="K22">
-        <v>20.39976227105107</v>
+        <v>17.91471814336992</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.01084674010913</v>
       </c>
       <c r="M22">
-        <v>16.09238422017179</v>
+        <v>12.89416370123714</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.35843270715904</v>
+        <v>15.59723078971252</v>
       </c>
       <c r="P22">
-        <v>13.47876474350187</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.12447143694123</v>
+      </c>
+      <c r="R22">
+        <v>12.7746683384704</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.81521529467301</v>
+        <v>15.77671643427737</v>
       </c>
       <c r="C23">
-        <v>12.77427427061696</v>
+        <v>13.45514890244167</v>
       </c>
       <c r="D23">
-        <v>9.27419276788129</v>
+        <v>9.266462934258611</v>
       </c>
       <c r="E23">
-        <v>18.7831137512616</v>
+        <v>18.90799447845862</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.41600103901928</v>
+        <v>42.25468691096118</v>
       </c>
       <c r="H23">
-        <v>2.583590188820481</v>
+        <v>2.541746727067052</v>
       </c>
       <c r="I23">
-        <v>3.093944006599971</v>
+        <v>3.057986804211029</v>
       </c>
       <c r="J23">
-        <v>13.1440989235576</v>
+        <v>11.17052072916026</v>
       </c>
       <c r="K23">
-        <v>20.27320510518103</v>
+        <v>17.97817383453597</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.12385421257927</v>
       </c>
       <c r="M23">
-        <v>15.8024672261804</v>
+        <v>12.84557806639424</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.03326837488432</v>
+        <v>15.37765206745944</v>
       </c>
       <c r="P23">
-        <v>13.52543878235102</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.83351141940718</v>
+      </c>
+      <c r="R23">
+        <v>12.87206769658859</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.56031626293643</v>
+        <v>14.74792320880701</v>
       </c>
       <c r="C24">
-        <v>11.78303370843188</v>
+        <v>12.62012481458958</v>
       </c>
       <c r="D24">
-        <v>8.556340327009565</v>
+        <v>8.554758755416161</v>
       </c>
       <c r="E24">
-        <v>17.43920362367112</v>
+        <v>17.52825773602009</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.12154640745231</v>
+        <v>38.581980901066</v>
       </c>
       <c r="H24">
-        <v>2.204963647541035</v>
+        <v>2.196171544729469</v>
       </c>
       <c r="I24">
-        <v>2.776167169275083</v>
+        <v>2.799930658002496</v>
       </c>
       <c r="J24">
-        <v>12.8055513254166</v>
+        <v>12.22565004590087</v>
       </c>
       <c r="K24">
-        <v>19.74241620339449</v>
+        <v>17.99779873829095</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.40161960292837</v>
       </c>
       <c r="M24">
-        <v>14.6509724175708</v>
+        <v>12.49123662290076</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.75032835204265</v>
+        <v>14.42323789201289</v>
       </c>
       <c r="P24">
-        <v>13.6886753109182</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.64580660570296</v>
+      </c>
+      <c r="R24">
+        <v>13.18256671828016</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.08672020909285</v>
+        <v>13.42734952975483</v>
       </c>
       <c r="C25">
-        <v>10.64220147621645</v>
+        <v>11.36173918501715</v>
       </c>
       <c r="D25">
-        <v>7.721846302135559</v>
+        <v>7.724164849340847</v>
       </c>
       <c r="E25">
-        <v>15.87754312170747</v>
+        <v>15.98311932606402</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>39.57378190647716</v>
+        <v>36.37658816887141</v>
       </c>
       <c r="H25">
-        <v>1.780793761283231</v>
+        <v>1.796774609802432</v>
       </c>
       <c r="I25">
-        <v>2.561031106255888</v>
+        <v>2.498367426018923</v>
       </c>
       <c r="J25">
-        <v>12.44747546682525</v>
+        <v>12.03426123616774</v>
       </c>
       <c r="K25">
-        <v>19.17509484157836</v>
+        <v>17.68386381965549</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.45467267679591</v>
       </c>
       <c r="M25">
-        <v>13.30820415376651</v>
+        <v>11.87426181050976</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.26466923004144</v>
+        <v>13.14192108567009</v>
       </c>
       <c r="P25">
-        <v>13.86958060955477</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>16.189778163802</v>
+      </c>
+      <c r="R25">
+        <v>13.42286960019959</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
